--- a/_Document/기능정의서.xlsx
+++ b/_Document/기능정의서.xlsx
@@ -19,15 +19,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="117">
-  <x:si>
-    <x:t>id, pw, pw_confirm, name, tel, address, detail_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"care_nm":value,"addr_detail":value,"care_tel":value}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/adopt_inquiry.html(팝업)</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="116">
+  <x:si>
+    <x:t>{"care_nm":value,"addr_detail":value,"care_tel":value, "charge_nm":value,"office_tel":value}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/mypage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/login.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id, deseration_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/logout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/signup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/recommend/survey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roaddog/search.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roaddog/survey.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"deseration_no", value, "profile":value
+, "kind": value
+, "age", value, "sex":value, "neutral_yn":value, "process_state":value,"special_mark":value,"st_cd":value,"care_nm":value,"latitude":value,"longitude":value,"other_roaddog":["deseration_no":value,'profile":value}]}</x:t>
   </x:si>
   <x:si>
     <x:t>{"roaddog":[{"deseration_no", value,"profile":value
@@ -35,349 +61,320 @@
 , "age", value, "sex":value, "neutral":value}]}</x:t>
   </x:si>
   <x:si>
+    <x:t>{"roaddog":[{"deseration_no", value, "profile":value
+, "kind": value
+, "age", value, "sex":value, "neutral_yn":value}]}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id, pw, pw_confirm, name, tel, address, detail_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"설문1":value,"설문2":value,...,"설문n":value}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id, tel, address, detail_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/mypage/user_info/submit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/mypage/survey_info/submit</x:t>
+  </x:si>
+  <x:si>
     <x:t>{"name":value,"interests":[{"img":value
 , "kind": value
 , "age", value, "sex":value, "neutral":value}]}</x:t>
   </x:si>
   <x:si>
-    <x:t>"deseration_no", value, "profile":value
-, "kind": value
-, "age", value, "sex":value, "neutral_yn":value, "process_state":value,"special_mark":value,"st_cd":value,"care_nm":value,"latitude":value,"longitude":value,"other_roaddog":["deseration_no":value,'profile":value}]}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"설문1":value,"설문2":value,...,"설문n":value}</x:t>
+    <x:t>유기견 추천/검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스소개 화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관심동물 별점 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입양문의 화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의하기화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설문조사화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색페이지 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/about_us</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/recommend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세페이지 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redirect</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천페이지 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천/검색 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천/검색페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설문정보화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>templates</x:t>
   </x:si>
   <x:si>
     <x:t>{"id":value, "tel":value, "address":value, "detail_address":value}</x:t>
   </x:si>
   <x:si>
-    <x:t>서비스소개 화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유기견 추천/검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관심동물 별점 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입양문의 화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의하기화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설문조사화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id, st_cd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세페이지 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색페이지 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설문정보화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천/검색 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천페이지 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/recommend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천/검색페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>templates</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/about_us</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redirect</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"roaddog":[{"deseration_no", value, "profile":value
-, "kind": value
-, "age", value, "sex":value, "neutral_yn":value}]}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/mypage/survey_info/submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id, tel, address, detail_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/mypage/user_info/submit</x:t>
-  </x:si>
-  <x:si>
     <x:t>/accounts/mypage/survey_info</x:t>
   </x:si>
   <x:si>
     <x:t>id, deseration_no, inter_score</x:t>
   </x:si>
   <x:si>
+    <x:t>roaddog/adopt_inquiry.html(팝업)</x:t>
+  </x:si>
+  <x:si>
     <x:t>{"id":value, "inquiry":value}</x:t>
   </x:si>
   <x:si>
     <x:t>accounts/mypage/inquiry/submit</x:t>
   </x:si>
   <x:si>
+    <x:t>사용자</x:t>
+  </x:si>
+  <x:si>
     <x:t>로그인</x:t>
   </x:si>
   <x:si>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>get</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소분류</x:t>
+  </x:si>
+  <x:si>
     <x:t>/</x:t>
   </x:si>
   <x:si>
-    <x:t>id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>get</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈화면</x:t>
-  </x:si>
-  <x:si>
     <x:t>제출</x:t>
   </x:si>
   <x:si>
+    <x:t>url</x:t>
+  </x:si>
+  <x:si>
     <x:t>홈</x:t>
   </x:si>
   <x:si>
-    <x:t>url</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/signup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id, deseration_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/logout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/search.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/recommend/survey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/survey.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/login.html</x:t>
+    <x:t>/detail_info</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"token":value}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/login</x:t>
   </x:si>
   <x:si>
     <x:t>id, password</x:t>
   </x:si>
   <x:si>
-    <x:t>{"token":value}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/detail_info</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/login</x:t>
+    <x:t>/accounts/mypage/user_info</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/recommend/survey/submit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roaddog/detail_info.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/detail_info/adopt_inquiry</x:t>
   </x:si>
   <x:si>
     <x:t>accounts/survey_info.html</x:t>
   </x:si>
   <x:si>
-    <x:t>/recommend/survey/submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/detail_info/adopt_inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/mypage/user_info</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/detail_info.html</x:t>
+    <x:t>accounts/inquiry.html(팝업)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설문조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스소개</x:t>
   </x:si>
   <x:si>
     <x:t>post</x:t>
   </x:si>
   <x:si>
-    <x:t>설문조사</x:t>
+    <x:t>1.3.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의하기 제출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설문조사 제출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설문정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.3.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유기견 추천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.2.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유기견 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관심동물별점</x:t>
   </x:si>
   <x:si>
     <x:t>회원정보 수정</x:t>
   </x:si>
   <x:si>
-    <x:t>1.4.2.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.3.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유기견 검색</x:t>
-  </x:si>
-  <x:si>
     <x:t>1.1.1</x:t>
   </x:si>
   <x:si>
-    <x:t>추천페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관심동물별점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설문조사 제출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의하기 제출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설문정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.3.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유기견 추천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.1.1</x:t>
+    <x:t>응답데이터형식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>method</x:t>
+  </x:si>
+  <x:si>
+    <x:t>depth1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>depth3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청파라미터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">대분류 </x:t>
   </x:si>
   <x:si>
     <x:t>depth2</x:t>
   </x:si>
   <x:si>
-    <x:t>depth3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>method</x:t>
+    <x:t>설문정보</x:t>
   </x:si>
   <x:si>
     <x:t>상세페이지</x:t>
   </x:si>
   <x:si>
-    <x:t>설문정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청파라미터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>depth1</x:t>
+    <x:t>depth4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
   </x:si>
   <x:si>
     <x:t>입양문의</x:t>
   </x:si>
   <x:si>
-    <x:t>depth4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능정의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응답데이터형식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">대분류 </x:t>
+    <x:t>accounts/mypage.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/mypage/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/signup.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/detail_info/interest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id, 설문1, 설문2, ..., 설문n</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roaddog/recommend.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/login/submit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id, si, sigungu, kind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/user_info.html</x:t>
   </x:si>
   <x:si>
     <x:t>roaddog/about_us.html</x:t>
   </x:si>
   <x:si>
-    <x:t>accounts/mypage/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/recommend.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/mypage.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/login/submit</x:t>
-  </x:si>
-  <x:si>
     <x:t>{"status_code":value}</x:t>
   </x:si>
   <x:si>
-    <x:t>id, si, sigungu, kind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/signup.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id, 설문1, 설문2, ..., 설문n</x:t>
-  </x:si>
-  <x:si>
     <x:t>/accounts/signup/submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/detail_info/interest</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/user_info.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/inquiry.html(팝업)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1461,7 +1458,7 @@
   <x:dimension ref="A1:O23"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="D16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H18" activeCellId="0" sqref="H18:H18"/>
+      <x:selection activeCell="L24" activeCellId="0" sqref="L24:L24"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1484,145 +1481,145 @@
   <x:sheetData>
     <x:row r="1" spans="1:14" ht="24.25">
       <x:c r="A1" s="18" t="s">
-        <x:v>103</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B1" s="19" t="s">
-        <x:v>38</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C1" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D1" s="19" t="s">
-        <x:v>96</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E1" s="19" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="F1" s="19" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="G1" s="19" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H1" s="19" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I1" s="19" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="J1" s="19" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="K1" s="19" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="F1" s="19" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="G1" s="19" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="H1" s="19" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="I1" s="19" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="J1" s="19" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="K1" s="19" t="s">
-        <x:v>101</x:v>
-      </x:c>
       <x:c r="L1" s="19" t="s">
-        <x:v>25</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M1" s="19" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N1" s="20" t="s">
-        <x:v>100</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:15" s="2" customFormat="1" ht="17.149999999999999">
       <x:c r="A2" s="23" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B2" s="24">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="21"/>
       <x:c r="D2" s="21" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E2" s="21"/>
       <x:c r="F2" s="21"/>
       <x:c r="G2" s="21"/>
       <x:c r="H2" s="21" t="s">
-        <x:v>37</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I2" s="21"/>
       <x:c r="J2" s="21"/>
       <x:c r="K2" s="21"/>
       <x:c r="L2" s="21" t="s">
-        <x:v>54</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M2" s="21"/>
       <x:c r="N2" s="22" t="s">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="O2" s="1"/>
     </x:row>
     <x:row r="3" spans="1:14" ht="16.75">
       <x:c r="A3" s="37" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B3" s="25">
         <x:v>1.1000000000000001</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E3" s="7" t="s">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="E3" s="7" t="s">
-        <x:v>36</x:v>
       </x:c>
       <x:c r="F3" s="7"/>
       <x:c r="G3" s="7"/>
       <x:c r="H3" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I3" s="7"/>
       <x:c r="J3" s="7"/>
       <x:c r="K3" s="7"/>
       <x:c r="L3" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M3" s="7"/>
       <x:c r="N3" s="8" t="s">
-        <x:v>13</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:15" s="2" customFormat="1">
       <x:c r="A4" s="38"/>
       <x:c r="B4" s="26" t="s">
-        <x:v>75</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C4" s="5" t="s">
-        <x:v>36</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D4" s="5" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E4" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="E4" s="5" t="s">
-        <x:v>36</x:v>
-      </x:c>
       <x:c r="F4" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G4" s="5"/>
       <x:c r="H4" s="5" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I4" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J4" s="5" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K4" s="5" t="s">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="K4" s="5" t="s">
-        <x:v>57</x:v>
       </x:c>
       <x:c r="L4" s="5"/>
       <x:c r="M4" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N4" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="O4" s="1"/>
     </x:row>
@@ -1632,34 +1629,34 @@
         <x:v>1.2</x:v>
       </x:c>
       <x:c r="C5" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D5" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E5" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F5" s="5"/>
       <x:c r="G5" s="5"/>
       <x:c r="H5" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I5" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J5" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K5" s="5" t="s">
-        <x:v>109</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="L5" s="5"/>
       <x:c r="M5" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N5" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="O5" s="1"/>
     </x:row>
@@ -1672,7 +1669,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="D6" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E6" s="5" t="s">
         <x:v>102</x:v>
@@ -1680,52 +1677,52 @@
       <x:c r="F6" s="5"/>
       <x:c r="G6" s="5"/>
       <x:c r="H6" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I6" s="5"/>
       <x:c r="J6" s="5"/>
       <x:c r="K6" s="5"/>
       <x:c r="L6" s="5" t="s">
-        <x:v>111</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="M6" s="5"/>
       <x:c r="N6" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:15" s="2" customFormat="1">
       <x:c r="A7" s="38"/>
       <x:c r="B7" s="26" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
         <x:v>102</x:v>
       </x:c>
       <x:c r="D7" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E7" s="5" t="s">
         <x:v>102</x:v>
       </x:c>
       <x:c r="F7" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G7" s="5"/>
       <x:c r="H7" s="5" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I7" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J7" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="K7" s="5" t="s">
-        <x:v>109</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="L7" s="5"/>
       <x:c r="M7" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N7" s="10" t="s">
         <x:v>102</x:v>
@@ -1738,210 +1735,210 @@
         <x:v>1.3999999999999999</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D8" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E8" s="5" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F8" s="5"/>
       <x:c r="G8" s="5"/>
       <x:c r="H8" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I8" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J8" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K8" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="L8" s="5" t="s">
-        <x:v>107</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M8" s="5"/>
       <x:c r="N8" s="10" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="O8" s="1"/>
     </x:row>
     <x:row r="9" spans="1:15" s="2" customFormat="1">
       <x:c r="A9" s="38"/>
       <x:c r="B9" s="26" t="s">
-        <x:v>72</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D9" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E9" s="5" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F9" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G9" s="5"/>
       <x:c r="H9" s="5" t="s">
-        <x:v>63</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I9" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J9" s="5" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="K9" s="5" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="K9" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="L9" s="5" t="s">
-        <x:v>115</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M9" s="5"/>
       <x:c r="N9" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="O9" s="1"/>
     </x:row>
     <x:row r="10" spans="1:15" s="2" customFormat="1">
       <x:c r="A10" s="38"/>
       <x:c r="B10" s="26" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D10" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E10" s="5" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F10" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G10" s="5" t="s">
-        <x:v>40</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H10" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I10" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J10" s="5" t="s">
-        <x:v>30</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K10" s="5" t="s">
-        <x:v>109</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="L10" s="5"/>
       <x:c r="M10" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N10" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O10" s="1"/>
     </x:row>
     <x:row r="11" spans="1:15" s="2" customFormat="1">
       <x:c r="A11" s="38"/>
       <x:c r="B11" s="26" t="s">
-        <x:v>70</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D11" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E11" s="5" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F11" s="5" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G11" s="5"/>
       <x:c r="H11" s="5" t="s">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I11" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J11" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K11" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L11" s="5" t="s">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="M11" s="5"/>
       <x:c r="N11" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O11" s="1"/>
     </x:row>
     <x:row r="12" spans="1:15" s="2" customFormat="1">
       <x:c r="A12" s="38"/>
       <x:c r="B12" s="26" t="s">
-        <x:v>68</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C12" s="5" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D12" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E12" s="5" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F12" s="5" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G12" s="5" t="s">
-        <x:v>40</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H12" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I12" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J12" s="5" t="s">
-        <x:v>112</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="K12" s="5" t="s">
-        <x:v>109</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="L12" s="5"/>
       <x:c r="M12" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N12" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="O12" s="1"/>
     </x:row>
     <x:row r="13" spans="1:15" s="2" customFormat="1">
       <x:c r="A13" s="38"/>
       <x:c r="B13" s="26" t="s">
-        <x:v>77</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C13" s="5" t="s">
         <x:v>73</x:v>
       </x:c>
       <x:c r="D13" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F13" s="5" t="s">
         <x:v>73</x:v>
@@ -1954,123 +1951,123 @@
       <x:c r="J13" s="5"/>
       <x:c r="K13" s="5"/>
       <x:c r="L13" s="5" t="s">
-        <x:v>116</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="M13" s="5"/>
       <x:c r="N13" s="10" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="O13" s="1"/>
     </x:row>
     <x:row r="14" spans="1:15" s="2" customFormat="1" ht="16.75">
       <x:c r="A14" s="39"/>
       <x:c r="B14" s="27" t="s">
-        <x:v>84</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C14" s="11" t="s">
         <x:v>73</x:v>
       </x:c>
       <x:c r="D14" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E14" s="11" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F14" s="11" t="s">
         <x:v>73</x:v>
       </x:c>
       <x:c r="G14" s="11" t="s">
-        <x:v>44</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H14" s="11" t="s">
-        <x:v>35</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I14" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J14" s="11" t="s">
-        <x:v>38</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K14" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="L14" s="11"/>
       <x:c r="M14" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N14" s="13" t="s">
-        <x:v>82</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O14" s="1"/>
     </x:row>
     <x:row r="15" spans="1:14" ht="16.75">
       <x:c r="A15" s="34" t="s">
-        <x:v>85</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B15" s="28">
         <x:v>2.1000000000000001</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F15" s="7"/>
       <x:c r="G15" s="7"/>
       <x:c r="H15" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
       <x:c r="J15" s="7"/>
       <x:c r="K15" s="7"/>
       <x:c r="L15" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="M15" s="7"/>
       <x:c r="N15" s="8" t="s">
-        <x:v>15</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:15" s="2" customFormat="1">
       <x:c r="A16" s="35"/>
       <x:c r="B16" s="29" t="s">
-        <x:v>87</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D16" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E16" s="5" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F16" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G16" s="5"/>
       <x:c r="H16" s="5" t="s">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I16" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="J16" s="5" t="s">
-        <x:v>112</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="K16" s="5" t="s">
-        <x:v>109</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="L16" s="9"/>
       <x:c r="M16" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N16" s="10" t="s">
-        <x:v>80</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="O16" s="1"/>
     </x:row>
@@ -2080,112 +2077,112 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C17" s="11" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D17" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E17" s="11" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F17" s="11"/>
       <x:c r="G17" s="11"/>
       <x:c r="H17" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I17" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J17" s="11" t="s">
-        <x:v>38</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K17" s="12" t="s">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="L17" s="11" t="s">
-        <x:v>106</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="M17" s="11"/>
       <x:c r="N17" s="13" t="s">
-        <x:v>21</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:14" ht="115.34999999999999">
       <x:c r="A18" s="31" t="s">
-        <x:v>74</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B18" s="32">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C18" s="14" t="s">
-        <x:v>79</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D18" s="14" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="14" t="s">
-        <x:v>79</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F18" s="14"/>
       <x:c r="G18" s="14"/>
       <x:c r="H18" s="14" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I18" s="14" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J18" s="14" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K18" s="15" t="s">
-        <x:v>28</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="L18" s="14" t="s">
-        <x:v>50</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M18" s="14"/>
       <x:c r="N18" s="16" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14" ht="196.44999999999999" customHeight="1">
       <x:c r="A19" s="37" t="s">
-        <x:v>9</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B19" s="28">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>93</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G19" s="7"/>
       <x:c r="H19" s="7" t="s">
-        <x:v>58</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>41</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J19" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K19" s="17" t="s">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L19" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="M19" s="7"/>
       <x:c r="N19" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:15" s="2" customFormat="1">
@@ -2194,38 +2191,38 @@
         <x:v>4.0999999999999996</x:v>
       </x:c>
       <x:c r="C20" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D20" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E20" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F20" s="5" t="s">
-        <x:v>93</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G20" s="5" t="s">
-        <x:v>78</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H20" s="5" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="I20" s="5" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="J20" s="5" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K20" s="5" t="s">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="I20" s="5" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="J20" s="5" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="K20" s="5" t="s">
-        <x:v>109</x:v>
       </x:c>
       <x:c r="L20" s="9"/>
       <x:c r="M20" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N20" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="O20" s="1"/>
     </x:row>
@@ -2235,57 +2232,57 @@
         <x:v>4.2000000000000002</x:v>
       </x:c>
       <x:c r="C21" s="11" t="s">
-        <x:v>20</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D21" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E21" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F21" s="11" t="s">
-        <x:v>93</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G21" s="11" t="s">
-        <x:v>97</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H21" s="11" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="I21" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="J21" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K21" s="11" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L21" s="11" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="J21" s="11" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="K21" s="11" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L21" s="11" t="s">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="M21" s="11" t="s">
-        <x:v>58</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N21" s="13" t="s">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:14" ht="17.149999999999999">
       <x:c r="A22" s="33" t="s">
-        <x:v>86</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B22" s="32">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C22" s="14" t="s">
-        <x:v>86</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D22" s="14" t="s">
-        <x:v>45</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E22" s="14" t="s">
-        <x:v>86</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F22" s="14"/>
       <x:c r="G22" s="14"/>
@@ -2296,11 +2293,11 @@
       <x:c r="J22" s="14"/>
       <x:c r="K22" s="14"/>
       <x:c r="L22" s="14" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="M22" s="14"/>
       <x:c r="N22" s="16" t="s">
-        <x:v>8</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:14">

--- a/_Document/기능정의서.xlsx
+++ b/_Document/기능정의서.xlsx
@@ -19,36 +19,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="116">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="115">
+  <x:si>
+    <x:t>user_id, deseration_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_id, deseration_no, inter_score</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"name":value,"interests":[{"img":value
+, "kind": value
+, "age", value, "sex":value, "neutral":value}]}</x:t>
+  </x:si>
   <x:si>
     <x:t>{"care_nm":value,"addr_detail":value,"care_tel":value, "charge_nm":value,"office_tel":value}</x:t>
   </x:si>
   <x:si>
-    <x:t>/accounts/mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/login.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id, deseration_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/logout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/signup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/recommend/survey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/search.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/survey.html</x:t>
+    <x:t>{"roaddog":[{"deseration_no", value, "profile":value
+, "kind": value
+, "age", value, "sex":value, "neutral_yn":value}]}</x:t>
   </x:si>
   <x:si>
     <x:t>"deseration_no", value, "profile":value
@@ -56,325 +48,330 @@
 , "age", value, "sex":value, "neutral_yn":value, "process_state":value,"special_mark":value,"st_cd":value,"care_nm":value,"latitude":value,"longitude":value,"other_roaddog":["deseration_no":value,'profile":value}]}</x:t>
   </x:si>
   <x:si>
+    <x:t>/accounts/mypage/survey_info/submit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/mypage/user_info/submit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"user_id":value, "inquiry":value}</x:t>
+  </x:si>
+  <x:si>
     <x:t>{"roaddog":[{"deseration_no", value,"profile":value
 , "kind": value
 , "age", value, "sex":value, "neutral":value}]}</x:t>
   </x:si>
   <x:si>
-    <x:t>{"roaddog":[{"deseration_no", value, "profile":value
-, "kind": value
-, "age", value, "sex":value, "neutral_yn":value}]}</x:t>
+    <x:t>id, password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/detail_info</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"token":value}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roaddog/search.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/recommend/survey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/logout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/signup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/mypage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roaddog/survey.html</x:t>
   </x:si>
   <x:si>
     <x:t>id, pw, pw_confirm, name, tel, address, detail_address</x:t>
   </x:si>
   <x:si>
-    <x:t>{"설문1":value,"설문2":value,...,"설문n":value}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id, tel, address, detail_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/mypage/user_info/submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/mypage/survey_info/submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"name":value,"interests":[{"img":value
-, "kind": value
-, "age", value, "sex":value, "neutral":value}]}</x:t>
+    <x:t>상세페이지 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스소개 화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/recommend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천/검색 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설문조사화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천페이지 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의하기화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/about_us</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redirect</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천/검색페이지</x:t>
   </x:si>
   <x:si>
     <x:t>유기견 추천/검색</x:t>
   </x:si>
   <x:si>
-    <x:t>서비스소개 화면 요청</x:t>
+    <x:t>입양문의 화면 요청</x:t>
   </x:si>
   <x:si>
     <x:t>관심동물 별점 등록</x:t>
   </x:si>
   <x:si>
-    <x:t>입양문의 화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의하기화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설문조사화면 요청</x:t>
-  </x:si>
-  <x:si>
     <x:t>검색페이지 조회</x:t>
   </x:si>
   <x:si>
-    <x:t>/about_us</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/recommend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세페이지 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redirect</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천페이지 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천/검색 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천/검색페이지</x:t>
+    <x:t>회원정보화면 요청</x:t>
   </x:si>
   <x:si>
     <x:t>설문정보화면 요청</x:t>
   </x:si>
   <x:si>
-    <x:t>회원정보화면 요청</x:t>
-  </x:si>
-  <x:si>
     <x:t>templates</x:t>
   </x:si>
   <x:si>
     <x:t>{"id":value, "tel":value, "address":value, "detail_address":value}</x:t>
   </x:si>
   <x:si>
+    <x:t>{"weight_cd":value,"age_cd":value,"attr_cd":value,"health_cd":value}</x:t>
+  </x:si>
+  <x:si>
     <x:t>/accounts/mypage/survey_info</x:t>
   </x:si>
   <x:si>
-    <x:t>id, deseration_no, inter_score</x:t>
-  </x:si>
-  <x:si>
     <x:t>roaddog/adopt_inquiry.html(팝업)</x:t>
   </x:si>
   <x:si>
-    <x:t>{"id":value, "inquiry":value}</x:t>
-  </x:si>
-  <x:si>
     <x:t>accounts/mypage/inquiry/submit</x:t>
   </x:si>
   <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>get</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/</x:t>
+  </x:si>
+  <x:si>
     <x:t>사용자</x:t>
   </x:si>
   <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id</x:t>
+    <x:t>소분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제출</x:t>
   </x:si>
   <x:si>
     <x:t>홈화면</x:t>
   </x:si>
   <x:si>
-    <x:t>get</x:t>
-  </x:si>
-  <x:si>
     <x:t>수정</x:t>
   </x:si>
   <x:si>
-    <x:t>소분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제출</x:t>
-  </x:si>
-  <x:si>
     <x:t>url</x:t>
   </x:si>
   <x:si>
     <x:t>홈</x:t>
   </x:si>
   <x:si>
-    <x:t>/detail_info</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"token":value}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id, password</x:t>
+    <x:t>roaddog/detail_info.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/survey_info.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/inquiry.html(팝업)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/recommend/survey/submit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/detail_info/adopt_inquiry</x:t>
   </x:si>
   <x:si>
     <x:t>/accounts/mypage/user_info</x:t>
   </x:si>
   <x:si>
-    <x:t>/recommend/survey/submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/detail_info.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/detail_info/adopt_inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/survey_info.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/inquiry.html(팝업)</x:t>
+    <x:t>설문조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유기견 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.1</x:t>
   </x:si>
   <x:si>
     <x:t>검색페이지</x:t>
   </x:si>
   <x:si>
+    <x:t>서비스소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설문정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의하기</x:t>
+  </x:si>
+  <x:si>
     <x:t>1.4.2</x:t>
   </x:si>
   <x:si>
+    <x:t>1.4.2.1</x:t>
+  </x:si>
+  <x:si>
     <x:t>1.4.1</x:t>
   </x:si>
   <x:si>
-    <x:t>설문조사</x:t>
+    <x:t>추천페이지</x:t>
   </x:si>
   <x:si>
     <x:t>1.4.3</x:t>
   </x:si>
   <x:si>
-    <x:t>서비스소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>post</x:t>
+    <x:t>문의하기 제출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유기견 추천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보 수정</x:t>
   </x:si>
   <x:si>
     <x:t>1.3.1</x:t>
   </x:si>
   <x:si>
-    <x:t>문의하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의하기 제출</x:t>
+    <x:t>회원정보</x:t>
   </x:si>
   <x:si>
     <x:t>설문조사 제출</x:t>
   </x:si>
   <x:si>
-    <x:t>설문정보 수정</x:t>
+    <x:t>2.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관심동물별점</x:t>
   </x:si>
   <x:si>
     <x:t>1.4.3.1</x:t>
   </x:si>
   <x:si>
-    <x:t>추천페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유기견 추천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.2.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유기견 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관심동물별점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1.1</x:t>
+    <x:t>입양문의</x:t>
   </x:si>
   <x:si>
     <x:t>응답데이터형식</x:t>
   </x:si>
   <x:si>
+    <x:t>상세페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설문정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청파라미터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>depth3</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">대분류 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>depth1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
     <x:t>method</x:t>
   </x:si>
   <x:si>
-    <x:t>depth1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>depth3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청파라미터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능정의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">대분류 </x:t>
-  </x:si>
-  <x:si>
     <x:t>depth2</x:t>
   </x:si>
   <x:si>
-    <x:t>설문정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세페이지</x:t>
-  </x:si>
-  <x:si>
     <x:t>depth4</x:t>
   </x:si>
   <x:si>
     <x:t>/search</x:t>
   </x:si>
   <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입양문의</x:t>
+    <x:t>로그인화면 요청(홈화면)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/user_info.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roaddog/recommend.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/mypage/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"status_code":value}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/signup/submit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/detail_info/interest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/login/submit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roaddog/about_us.html</x:t>
   </x:si>
   <x:si>
     <x:t>accounts/mypage.html</x:t>
   </x:si>
   <x:si>
-    <x:t>accounts/mypage/inquiry</x:t>
-  </x:si>
-  <x:si>
     <x:t>accounts/signup.html</x:t>
   </x:si>
   <x:si>
-    <x:t>/detail_info/interest</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id, 설문1, 설문2, ..., 설문n</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/recommend.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/login/submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id, si, sigungu, kind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/user_info.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/about_us.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"status_code":value}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/signup/submit</x:t>
+    <x:t>user_id, tel, address, detail_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_id, weight_cd, age_cd, attr_cd, health_cd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_id, si, kind</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -902,19 +899,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1186,6 +1170,19 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1457,8 +1454,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:O23"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="D16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="L24" activeCellId="0" sqref="L24:L24"/>
+    <x:sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="N5" activeCellId="0" sqref="N5:N5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1467,7 +1464,7 @@
     <x:col min="2" max="2" width="10.5" style="2" customWidth="1"/>
     <x:col min="3" max="3" width="9.625" style="3" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="10.625" style="3" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="23.1015625" style="3" customWidth="1"/>
+    <x:col min="5" max="5" width="18.1015625" style="3" customWidth="1"/>
     <x:col min="6" max="6" width="17.6015625" style="3" customWidth="1"/>
     <x:col min="7" max="7" width="10.625" style="2" customWidth="1"/>
     <x:col min="8" max="8" width="36.19921875" style="3" customWidth="1"/>
@@ -1480,90 +1477,90 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:14" ht="24.25">
-      <x:c r="A1" s="18" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B1" s="19" t="s">
+      <x:c r="A1" s="17" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B1" s="18" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="C1" s="19" t="s">
+      <x:c r="C1" s="18" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D1" s="19" t="s">
+      <x:c r="D1" s="18" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="E1" s="18" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="F1" s="18" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="E1" s="19" t="s">
+      <x:c r="G1" s="18" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="H1" s="18" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="I1" s="18" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="F1" s="19" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="G1" s="19" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="H1" s="19" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="I1" s="19" t="s">
+      <x:c r="J1" s="18" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="J1" s="19" t="s">
+      <x:c r="K1" s="18" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="L1" s="18" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M1" s="18" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="N1" s="19" t="s">
         <x:v>93</x:v>
-      </x:c>
-      <x:c r="K1" s="19" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="L1" s="19" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="M1" s="19" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="N1" s="20" t="s">
-        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:15" s="2" customFormat="1" ht="17.149999999999999">
-      <x:c r="A2" s="23" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B2" s="24">
+      <x:c r="A2" s="22" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B2" s="23">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C2" s="21"/>
-      <x:c r="D2" s="21" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="E2" s="21"/>
-      <x:c r="F2" s="21"/>
-      <x:c r="G2" s="21"/>
-      <x:c r="H2" s="21" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="I2" s="21"/>
-      <x:c r="J2" s="21"/>
-      <x:c r="K2" s="21"/>
-      <x:c r="L2" s="21" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="M2" s="21"/>
-      <x:c r="N2" s="22" t="s">
-        <x:v>47</x:v>
+      <x:c r="C2" s="20"/>
+      <x:c r="D2" s="20" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E2" s="20"/>
+      <x:c r="F2" s="20"/>
+      <x:c r="G2" s="20"/>
+      <x:c r="H2" s="20" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I2" s="20"/>
+      <x:c r="J2" s="20"/>
+      <x:c r="K2" s="20"/>
+      <x:c r="L2" s="20" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="M2" s="20"/>
+      <x:c r="N2" s="21" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="O2" s="1"/>
     </x:row>
     <x:row r="3" spans="1:14" ht="16.75">
-      <x:c r="A3" s="37" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B3" s="25">
+      <x:c r="A3" s="36" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B3" s="24">
         <x:v>1.1000000000000001</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
         <x:v>45</x:v>
@@ -1571,52 +1568,52 @@
       <x:c r="F3" s="7"/>
       <x:c r="G3" s="7"/>
       <x:c r="H3" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I3" s="7"/>
       <x:c r="J3" s="7"/>
       <x:c r="K3" s="7"/>
       <x:c r="L3" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="M3" s="7"/>
       <x:c r="N3" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:15" s="2" customFormat="1">
-      <x:c r="A4" s="38"/>
-      <x:c r="B4" s="26" t="s">
-        <x:v>87</x:v>
+      <x:c r="A4" s="37"/>
+      <x:c r="B4" s="25" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C4" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="D4" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E4" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="F4" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G4" s="5"/>
       <x:c r="H4" s="5" t="s">
-        <x:v>110</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I4" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J4" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="K4" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="L4" s="5"/>
       <x:c r="M4" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N4" s="10" t="s">
         <x:v>45</x:v>
@@ -1624,121 +1621,121 @@
       <x:c r="O4" s="1"/>
     </x:row>
     <x:row r="5" spans="1:15" s="2" customFormat="1">
-      <x:c r="A5" s="38"/>
-      <x:c r="B5" s="26">
+      <x:c r="A5" s="37"/>
+      <x:c r="B5" s="25">
         <x:v>1.2</x:v>
       </x:c>
       <x:c r="C5" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D5" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E5" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F5" s="5"/>
       <x:c r="G5" s="5"/>
       <x:c r="H5" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I5" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J5" s="5" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="K5" s="5" t="s">
-        <x:v>114</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="L5" s="5"/>
       <x:c r="M5" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N5" s="10" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="O5" s="1"/>
     </x:row>
     <x:row r="6" spans="1:14">
-      <x:c r="A6" s="38"/>
-      <x:c r="B6" s="26">
+      <x:c r="A6" s="37"/>
+      <x:c r="B6" s="25">
         <x:v>1.3</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>102</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D6" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E6" s="5" t="s">
-        <x:v>102</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F6" s="5"/>
       <x:c r="G6" s="5"/>
       <x:c r="H6" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I6" s="5"/>
       <x:c r="J6" s="5"/>
       <x:c r="K6" s="5"/>
       <x:c r="L6" s="5" t="s">
-        <x:v>106</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M6" s="5"/>
       <x:c r="N6" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:15" s="2" customFormat="1">
-      <x:c r="A7" s="38"/>
-      <x:c r="B7" s="26" t="s">
-        <x:v>72</x:v>
+      <x:c r="A7" s="37"/>
+      <x:c r="B7" s="25" t="s">
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>102</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D7" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E7" s="5" t="s">
-        <x:v>102</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F7" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G7" s="5"/>
       <x:c r="H7" s="5" t="s">
-        <x:v>115</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I7" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J7" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K7" s="5" t="s">
-        <x:v>114</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="L7" s="5"/>
       <x:c r="M7" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N7" s="10" t="s">
-        <x:v>102</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="O7" s="1"/>
     </x:row>
     <x:row r="8" spans="1:15" s="2" customFormat="1" ht="98.25">
-      <x:c r="A8" s="38"/>
-      <x:c r="B8" s="26">
+      <x:c r="A8" s="37"/>
+      <x:c r="B8" s="25">
         <x:v>1.3999999999999999</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
         <x:v>92</x:v>
       </x:c>
       <x:c r="D8" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E8" s="5" t="s">
         <x:v>92</x:v>
@@ -1746,19 +1743,19 @@
       <x:c r="F8" s="5"/>
       <x:c r="G8" s="5"/>
       <x:c r="H8" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I8" s="5" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="J8" s="5" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I8" s="5" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="J8" s="5" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="K8" s="6" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L8" s="5" t="s">
-        <x:v>104</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="M8" s="5"/>
       <x:c r="N8" s="10" t="s">
@@ -1767,358 +1764,358 @@
       <x:c r="O8" s="1"/>
     </x:row>
     <x:row r="9" spans="1:15" s="2" customFormat="1">
-      <x:c r="A9" s="38"/>
-      <x:c r="B9" s="26" t="s">
-        <x:v>67</x:v>
+      <x:c r="A9" s="37"/>
+      <x:c r="B9" s="25" t="s">
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D9" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E9" s="5" t="s">
         <x:v>92</x:v>
       </x:c>
       <x:c r="F9" s="5" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G9" s="5"/>
       <x:c r="H9" s="5" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I9" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J9" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K9" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="L9" s="5" t="s">
-        <x:v>112</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M9" s="5"/>
       <x:c r="N9" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="O9" s="1"/>
     </x:row>
     <x:row r="10" spans="1:15" s="2" customFormat="1">
-      <x:c r="A10" s="38"/>
-      <x:c r="B10" s="26" t="s">
-        <x:v>79</x:v>
+      <x:c r="A10" s="37"/>
+      <x:c r="B10" s="25" t="s">
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D10" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E10" s="5" t="s">
         <x:v>92</x:v>
       </x:c>
       <x:c r="F10" s="5" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G10" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H10" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I10" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J10" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="K10" s="5" t="s">
-        <x:v>114</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="L10" s="5"/>
       <x:c r="M10" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="N10" s="10" t="s">
-        <x:v>86</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O10" s="1"/>
     </x:row>
     <x:row r="11" spans="1:15" s="2" customFormat="1">
-      <x:c r="A11" s="38"/>
-      <x:c r="B11" s="26" t="s">
-        <x:v>66</x:v>
+      <x:c r="A11" s="37"/>
+      <x:c r="B11" s="25" t="s">
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D11" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E11" s="5" t="s">
         <x:v>92</x:v>
       </x:c>
       <x:c r="F11" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G11" s="5"/>
       <x:c r="H11" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I11" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J11" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K11" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L11" s="5" t="s">
-        <x:v>63</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="M11" s="5"/>
       <x:c r="N11" s="10" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="O11" s="1"/>
     </x:row>
     <x:row r="12" spans="1:15" s="2" customFormat="1">
-      <x:c r="A12" s="38"/>
-      <x:c r="B12" s="26" t="s">
-        <x:v>81</x:v>
+      <x:c r="A12" s="37"/>
+      <x:c r="B12" s="25" t="s">
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C12" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D12" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E12" s="5" t="s">
         <x:v>92</x:v>
       </x:c>
       <x:c r="F12" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G12" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H12" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I12" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J12" s="5" t="s">
-        <x:v>108</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="K12" s="5" t="s">
-        <x:v>114</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="L12" s="5"/>
       <x:c r="M12" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="N12" s="10" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="O12" s="1"/>
     </x:row>
     <x:row r="13" spans="1:15" s="2" customFormat="1">
-      <x:c r="A13" s="38"/>
-      <x:c r="B13" s="26" t="s">
+      <x:c r="A13" s="37"/>
+      <x:c r="B13" s="25" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C13" s="5" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="C13" s="5" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="D13" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
         <x:v>92</x:v>
       </x:c>
       <x:c r="F13" s="5" t="s">
-        <x:v>73</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G13" s="5"/>
       <x:c r="H13" s="5" t="s">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I13" s="5"/>
       <x:c r="J13" s="5"/>
       <x:c r="K13" s="5"/>
       <x:c r="L13" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="M13" s="5"/>
       <x:c r="N13" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O13" s="1"/>
     </x:row>
     <x:row r="14" spans="1:15" s="2" customFormat="1" ht="16.75">
-      <x:c r="A14" s="39"/>
-      <x:c r="B14" s="27" t="s">
-        <x:v>77</x:v>
+      <x:c r="A14" s="38"/>
+      <x:c r="B14" s="26" t="s">
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C14" s="11" t="s">
-        <x:v>73</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D14" s="11" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E14" s="11" t="s">
         <x:v>92</x:v>
       </x:c>
       <x:c r="F14" s="11" t="s">
-        <x:v>73</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G14" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H14" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I14" s="11" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J14" s="11" t="s">
-        <x:v>46</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K14" s="11" t="s">
-        <x:v>42</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L14" s="11"/>
       <x:c r="M14" s="11" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="N14" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="O14" s="1"/>
     </x:row>
     <x:row r="15" spans="1:14" ht="16.75">
-      <x:c r="A15" s="34" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B15" s="28">
+      <x:c r="A15" s="33" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B15" s="27">
         <x:v>2.1000000000000001</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>68</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>68</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F15" s="7"/>
       <x:c r="G15" s="7"/>
       <x:c r="H15" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
       <x:c r="J15" s="7"/>
       <x:c r="K15" s="7"/>
       <x:c r="L15" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M15" s="7"/>
       <x:c r="N15" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:15" s="2" customFormat="1">
-      <x:c r="A16" s="35"/>
-      <x:c r="B16" s="29" t="s">
-        <x:v>83</x:v>
+      <x:c r="A16" s="34"/>
+      <x:c r="B16" s="28" t="s">
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>68</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D16" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E16" s="5" t="s">
-        <x:v>68</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F16" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G16" s="5"/>
       <x:c r="H16" s="5" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I16" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J16" s="5" t="s">
-        <x:v>108</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="K16" s="5" t="s">
-        <x:v>114</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="L16" s="9"/>
       <x:c r="M16" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="N16" s="10" t="s">
-        <x:v>75</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O16" s="1"/>
     </x:row>
     <x:row r="17" spans="1:14" ht="115">
-      <x:c r="A17" s="36"/>
-      <x:c r="B17" s="30">
+      <x:c r="A17" s="35"/>
+      <x:c r="B17" s="29">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C17" s="11" t="s">
-        <x:v>78</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D17" s="11" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E17" s="11" t="s">
-        <x:v>78</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F17" s="11"/>
       <x:c r="G17" s="11"/>
       <x:c r="H17" s="11" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I17" s="11" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J17" s="11" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="K17" s="12" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L17" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="M17" s="11"/>
       <x:c r="N17" s="13" t="s">
-        <x:v>30</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:14" ht="115.34999999999999">
-      <x:c r="A18" s="31" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="B18" s="32">
+      <x:c r="A18" s="30" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B18" s="31">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C18" s="14" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="D18" s="14" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="14" t="s">
         <x:v>65</x:v>
@@ -2126,178 +2123,178 @@
       <x:c r="F18" s="14"/>
       <x:c r="G18" s="14"/>
       <x:c r="H18" s="14" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I18" s="14" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J18" s="14" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="K18" s="15" t="s">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="L18" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="M18" s="14"/>
       <x:c r="N18" s="16" t="s">
-        <x:v>25</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14" ht="196.44999999999999" customHeight="1">
-      <x:c r="A19" s="37" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B19" s="28">
+      <x:c r="A19" s="36" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B19" s="27">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>99</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G19" s="7"/>
       <x:c r="H19" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J19" s="7" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="K19" s="17" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K19" s="39" t="s">
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L19" s="7" t="s">
-        <x:v>61</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="M19" s="7"/>
       <x:c r="N19" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:15" s="2" customFormat="1">
-      <x:c r="A20" s="38"/>
-      <x:c r="B20" s="29">
+      <x:c r="A20" s="37"/>
+      <x:c r="B20" s="28">
         <x:v>4.0999999999999996</x:v>
       </x:c>
       <x:c r="C20" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D20" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E20" s="5" t="s">
-        <x:v>34</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F20" s="5" t="s">
-        <x:v>99</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G20" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H20" s="5" t="s">
         <x:v>107</x:v>
       </x:c>
       <x:c r="I20" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J20" s="5" t="s">
-        <x:v>40</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K20" s="5" t="s">
-        <x:v>114</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="L20" s="9"/>
       <x:c r="M20" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N20" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O20" s="1"/>
     </x:row>
     <x:row r="21" spans="1:14" ht="16.75">
-      <x:c r="A21" s="39"/>
-      <x:c r="B21" s="30">
+      <x:c r="A21" s="38"/>
+      <x:c r="B21" s="29">
         <x:v>4.2000000000000002</x:v>
       </x:c>
       <x:c r="C21" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D21" s="11" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E21" s="11" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F21" s="11" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G21" s="11" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="H21" s="11" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="I21" s="11" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="J21" s="11" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K21" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L21" s="11" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="M21" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N21" s="13" t="s">
         <x:v>34</x:v>
-      </x:c>
-      <x:c r="F21" s="11" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="G21" s="11" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="H21" s="11" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="I21" s="11" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="J21" s="11" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="K21" s="11" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L21" s="11" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="M21" s="11" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="N21" s="13" t="s">
-        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:14" ht="17.149999999999999">
-      <x:c r="A22" s="33" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B22" s="32">
+      <x:c r="A22" s="32" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B22" s="31">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C22" s="14" t="s">
-        <x:v>70</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D22" s="14" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E22" s="14" t="s">
-        <x:v>70</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F22" s="14"/>
       <x:c r="G22" s="14"/>
       <x:c r="H22" s="14" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I22" s="14"/>
       <x:c r="J22" s="14"/>
       <x:c r="K22" s="14"/>
       <x:c r="L22" s="14" t="s">
-        <x:v>113</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="M22" s="14"/>
       <x:c r="N22" s="16" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:14">

--- a/_Document/기능정의서.xlsx
+++ b/_Document/기능정의서.xlsx
@@ -21,13 +21,42 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="115">
   <x:si>
-    <x:t>user_id, deseration_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_id, deseration_no, inter_score</x:t>
+    <x:t>get</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>url</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"roaddog":[{"deseration_no", value,"profile":value
+, "kind": value
+, "age", value, "sex":value, "neutral":value}]}</x:t>
   </x:si>
   <x:si>
     <x:t>{"name":value,"interests":[{"img":value
@@ -35,7 +64,13 @@
 , "age", value, "sex":value, "neutral":value}]}</x:t>
   </x:si>
   <x:si>
-    <x:t>{"care_nm":value,"addr_detail":value,"care_tel":value, "charge_nm":value,"office_tel":value}</x:t>
+    <x:t>"desertion_no
+", value, "profile":value
+, "kind": value
+, "age", value, "sex":value, "neutral_yn":value, "process_state":value,"special_mark":value,"st_cd":value,"care_nm":value,"latitude":value,"longitude":value,"other_roaddog":["deseration_no":value,'profile":value}]}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_id, tel, address, detail_address</x:t>
   </x:si>
   <x:si>
     <x:t>{"roaddog":[{"deseration_no", value, "profile":value
@@ -43,23 +78,121 @@
 , "age", value, "sex":value, "neutral_yn":value}]}</x:t>
   </x:si>
   <x:si>
-    <x:t>"deseration_no", value, "profile":value
-, "kind": value
-, "age", value, "sex":value, "neutral_yn":value, "process_state":value,"special_mark":value,"st_cd":value,"care_nm":value,"latitude":value,"longitude":value,"other_roaddog":["deseration_no":value,'profile":value}]}</x:t>
+    <x:t>{"id":value, "tel":value, "address":value, "detail_address":value}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_id, weight_cd, age_cd, attr_cd, health_cd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id, pw, pw_confirm, name, tel, address, detail_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"care_nm":value,"addr_detail":value,"care_tel":value, "charge_nm":value,"office_tel":value}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"weight_cd":value,"age_cd":value,"attr_cd":value,"health_cd":value}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천/검색 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의하기화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redirect</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세페이지 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/recommend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천/검색페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/about_us</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입양문의 화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유기견 추천/검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천페이지 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스소개 화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설문조사화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색페이지 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설문정보화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관심동물 별점 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>templates</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_id, si, kind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/logout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roaddog/survey.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/mypage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roaddog/search.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/signup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/recommend/survey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/mypage/user_info/submit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_id, deseration_no, inter_score</x:t>
   </x:si>
   <x:si>
     <x:t>/accounts/mypage/survey_info/submit</x:t>
   </x:si>
   <x:si>
-    <x:t>/accounts/mypage/user_info/submit</x:t>
-  </x:si>
-  <x:si>
     <x:t>{"user_id":value, "inquiry":value}</x:t>
   </x:si>
   <x:si>
-    <x:t>{"roaddog":[{"deseration_no", value,"profile":value
-, "kind": value
-, "age", value, "sex":value, "neutral":value}]}</x:t>
+    <x:t>/accounts/mypage/survey_info</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roaddog/adopt_inquiry.html(팝업)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/mypage/inquiry/submit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"token":value}</x:t>
   </x:si>
   <x:si>
     <x:t>id, password</x:t>
@@ -68,133 +201,127 @@
     <x:t>/detail_info</x:t>
   </x:si>
   <x:si>
-    <x:t>{"token":value}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/search.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/recommend/survey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/logout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/signup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/survey.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id, pw, pw_confirm, name, tel, address, detail_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세페이지 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스소개 화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/recommend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천/검색 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설문조사화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천페이지 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의하기화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/about_us</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redirect</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천/검색페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유기견 추천/검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입양문의 화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관심동물 별점 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색페이지 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설문정보화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>templates</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"id":value, "tel":value, "address":value, "detail_address":value}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"weight_cd":value,"age_cd":value,"attr_cd":value,"health_cd":value}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/mypage/survey_info</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/adopt_inquiry.html(팝업)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/mypage/inquiry/submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>get</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>url</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈</x:t>
+    <x:t>로그인화면 요청(홈화면)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유기견 추천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설문정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.2.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.3.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의하기 제출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관심동물별점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설문조사 제출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설문조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유기견 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>post</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">대분류 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>응답데이터형식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설문정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>depth4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>depth1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.3.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>method</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청파라미터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>depth3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입양문의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>depth2</x:t>
   </x:si>
   <x:si>
     <x:t>roaddog/detail_info.html</x:t>
@@ -203,175 +330,49 @@
     <x:t>accounts/survey_info.html</x:t>
   </x:si>
   <x:si>
+    <x:t>/detail_info/adopt_inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/recommend/survey/submit</x:t>
+  </x:si>
+  <x:si>
     <x:t>accounts/inquiry.html(팝업)</x:t>
   </x:si>
   <x:si>
-    <x:t>/recommend/survey/submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/detail_info/adopt_inquiry</x:t>
-  </x:si>
-  <x:si>
     <x:t>/accounts/mypage/user_info</x:t>
   </x:si>
   <x:si>
-    <x:t>설문조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유기견 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설문정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.2.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의하기 제출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유기견 추천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.3.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설문조사 제출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관심동물별점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.3.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입양문의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응답데이터형식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설문정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청파라미터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>depth3</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">대분류 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능정의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>depth1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>method</x:t>
-  </x:si>
-  <x:si>
-    <x:t>depth2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>depth4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인화면 요청(홈화면)</x:t>
+    <x:t>roaddog/recommend.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/signup/submit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/login/submit</x:t>
   </x:si>
   <x:si>
     <x:t>accounts/user_info.html</x:t>
   </x:si>
   <x:si>
-    <x:t>roaddog/recommend.html</x:t>
+    <x:t>accounts/signup.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"status_code":value}</x:t>
   </x:si>
   <x:si>
     <x:t>accounts/mypage/inquiry</x:t>
   </x:si>
   <x:si>
-    <x:t>{"status_code":value}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/signup/submit</x:t>
+    <x:t>user_id, deseration_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roaddog/about_us.html</x:t>
   </x:si>
   <x:si>
     <x:t>/detail_info/interest</x:t>
   </x:si>
   <x:si>
-    <x:t>/accounts/login/submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/about_us.html</x:t>
-  </x:si>
-  <x:si>
     <x:t>accounts/mypage.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/signup.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_id, tel, address, detail_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_id, weight_cd, age_cd, attr_cd, health_cd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_id, si, kind</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1454,8 +1455,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:O23"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="N5" activeCellId="0" sqref="N5:N5"/>
+    <x:sheetView tabSelected="1" topLeftCell="D13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="K19" activeCellId="0" sqref="K19:K19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1478,145 +1479,145 @@
   <x:sheetData>
     <x:row r="1" spans="1:14" ht="24.25">
       <x:c r="A1" s="17" t="s">
-        <x:v>91</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B1" s="18" t="s">
-        <x:v>46</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C1" s="18" t="s">
-        <x:v>50</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D1" s="18" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E1" s="18" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="F1" s="18" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="E1" s="18" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="F1" s="18" t="s">
-        <x:v>90</x:v>
-      </x:c>
       <x:c r="G1" s="18" t="s">
-        <x:v>99</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H1" s="18" t="s">
-        <x:v>54</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I1" s="18" t="s">
-        <x:v>97</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="J1" s="18" t="s">
-        <x:v>89</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="K1" s="18" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="L1" s="18" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="M1" s="18" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="N1" s="19" t="s">
         <x:v>86</x:v>
-      </x:c>
-      <x:c r="L1" s="18" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="M1" s="18" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="N1" s="19" t="s">
-        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:15" s="2" customFormat="1" ht="17.149999999999999">
       <x:c r="A2" s="22" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="23">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="20"/>
       <x:c r="D2" s="20" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2" s="20"/>
       <x:c r="F2" s="20"/>
       <x:c r="G2" s="20"/>
       <x:c r="H2" s="20" t="s">
-        <x:v>48</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I2" s="20"/>
       <x:c r="J2" s="20"/>
       <x:c r="K2" s="20"/>
       <x:c r="L2" s="20" t="s">
-        <x:v>14</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="M2" s="20"/>
       <x:c r="N2" s="21" t="s">
-        <x:v>52</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O2" s="1"/>
     </x:row>
     <x:row r="3" spans="1:14" ht="16.75">
       <x:c r="A3" s="36" t="s">
-        <x:v>49</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="24">
         <x:v>1.1000000000000001</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>45</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
-        <x:v>45</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F3" s="7"/>
       <x:c r="G3" s="7"/>
       <x:c r="H3" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I3" s="7"/>
       <x:c r="J3" s="7"/>
       <x:c r="K3" s="7"/>
       <x:c r="L3" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="M3" s="7"/>
       <x:c r="N3" s="8" t="s">
-        <x:v>101</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:15" s="2" customFormat="1">
       <x:c r="A4" s="37"/>
       <x:c r="B4" s="25" t="s">
-        <x:v>64</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C4" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D4" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E4" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F4" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G4" s="5"/>
       <x:c r="H4" s="5" t="s">
-        <x:v>108</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I4" s="5" t="s">
-        <x:v>67</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="J4" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="K4" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="L4" s="5"/>
       <x:c r="M4" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N4" s="10" t="s">
-        <x:v>45</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O4" s="1"/>
     </x:row>
@@ -1626,34 +1627,34 @@
         <x:v>1.2</x:v>
       </x:c>
       <x:c r="C5" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D5" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E5" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F5" s="5"/>
       <x:c r="G5" s="5"/>
       <x:c r="H5" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I5" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J5" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K5" s="5" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="L5" s="5"/>
       <x:c r="M5" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N5" s="10" t="s">
-        <x:v>96</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="O5" s="1"/>
     </x:row>
@@ -1663,66 +1664,66 @@
         <x:v>1.3</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>94</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D6" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E6" s="5" t="s">
-        <x:v>94</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F6" s="5"/>
       <x:c r="G6" s="5"/>
       <x:c r="H6" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I6" s="5"/>
       <x:c r="J6" s="5"/>
       <x:c r="K6" s="5"/>
       <x:c r="L6" s="5" t="s">
-        <x:v>111</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="M6" s="5"/>
       <x:c r="N6" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:15" s="2" customFormat="1">
       <x:c r="A7" s="37"/>
       <x:c r="B7" s="25" t="s">
-        <x:v>79</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>94</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D7" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E7" s="5" t="s">
-        <x:v>94</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F7" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G7" s="5"/>
       <x:c r="H7" s="5" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="I7" s="5" t="s">
-        <x:v>67</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="J7" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K7" s="5" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="L7" s="5"/>
       <x:c r="M7" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N7" s="10" t="s">
-        <x:v>94</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O7" s="1"/>
     </x:row>
@@ -1732,339 +1733,339 @@
         <x:v>1.3999999999999999</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D8" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E8" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F8" s="5"/>
       <x:c r="G8" s="5"/>
       <x:c r="H8" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I8" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J8" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="K8" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="L8" s="5" t="s">
-        <x:v>110</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="M8" s="5"/>
       <x:c r="N8" s="10" t="s">
-        <x:v>92</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="O8" s="1"/>
     </x:row>
     <x:row r="9" spans="1:15" s="2" customFormat="1">
       <x:c r="A9" s="37"/>
       <x:c r="B9" s="25" t="s">
-        <x:v>72</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D9" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E9" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F9" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G9" s="5"/>
       <x:c r="H9" s="5" t="s">
-        <x:v>61</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I9" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J9" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="K9" s="5" t="s">
-        <x:v>40</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="L9" s="5" t="s">
-        <x:v>102</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M9" s="5"/>
       <x:c r="N9" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="O9" s="1"/>
     </x:row>
     <x:row r="10" spans="1:15" s="2" customFormat="1">
       <x:c r="A10" s="37"/>
       <x:c r="B10" s="25" t="s">
-        <x:v>77</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D10" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E10" s="5" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="F10" s="5" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G10" s="5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H10" s="5" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="I10" s="5" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D10" s="5" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E10" s="5" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="F10" s="5" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G10" s="5" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H10" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="I10" s="5" t="s">
-        <x:v>67</x:v>
-      </x:c>
       <x:c r="J10" s="5" t="s">
-        <x:v>112</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K10" s="5" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="L10" s="5"/>
       <x:c r="M10" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N10" s="10" t="s">
-        <x:v>78</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="O10" s="1"/>
     </x:row>
     <x:row r="11" spans="1:15" s="2" customFormat="1">
       <x:c r="A11" s="37"/>
       <x:c r="B11" s="25" t="s">
-        <x:v>70</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
-        <x:v>88</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D11" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E11" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F11" s="5" t="s">
-        <x:v>88</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G11" s="5"/>
       <x:c r="H11" s="5" t="s">
-        <x:v>42</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I11" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J11" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="K11" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L11" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M11" s="5"/>
       <x:c r="N11" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="O11" s="1"/>
     </x:row>
     <x:row r="12" spans="1:15" s="2" customFormat="1">
       <x:c r="A12" s="37"/>
       <x:c r="B12" s="25" t="s">
-        <x:v>71</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C12" s="5" t="s">
-        <x:v>88</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D12" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E12" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F12" s="5" t="s">
-        <x:v>88</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G12" s="5" t="s">
-        <x:v>53</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H12" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I12" s="5" t="s">
-        <x:v>67</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="J12" s="5" t="s">
-        <x:v>113</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K12" s="5" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="L12" s="5"/>
       <x:c r="M12" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N12" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="O12" s="1"/>
     </x:row>
     <x:row r="13" spans="1:15" s="2" customFormat="1">
       <x:c r="A13" s="37"/>
       <x:c r="B13" s="25" t="s">
-        <x:v>74</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C13" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D13" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>92</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F13" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G13" s="5"/>
       <x:c r="H13" s="5" t="s">
-        <x:v>104</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I13" s="5"/>
       <x:c r="J13" s="5"/>
       <x:c r="K13" s="5"/>
       <x:c r="L13" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M13" s="5"/>
       <x:c r="N13" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O13" s="1"/>
     </x:row>
     <x:row r="14" spans="1:15" s="2" customFormat="1" ht="16.75">
       <x:c r="A14" s="38"/>
       <x:c r="B14" s="26" t="s">
-        <x:v>84</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C14" s="11" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D14" s="11" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E14" s="11" t="s">
-        <x:v>92</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F14" s="11" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G14" s="11" t="s">
-        <x:v>51</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H14" s="11" t="s">
-        <x:v>44</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I14" s="11" t="s">
-        <x:v>47</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J14" s="11" t="s">
-        <x:v>1</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="K14" s="11" t="s">
-        <x:v>9</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="L14" s="11"/>
       <x:c r="M14" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N14" s="13" t="s">
-        <x:v>75</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="O14" s="1"/>
     </x:row>
     <x:row r="15" spans="1:14" ht="16.75">
       <x:c r="A15" s="33" t="s">
-        <x:v>76</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B15" s="27">
         <x:v>2.1000000000000001</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>62</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>62</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F15" s="7"/>
       <x:c r="G15" s="7"/>
       <x:c r="H15" s="7" t="s">
-        <x:v>16</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
       <x:c r="J15" s="7"/>
       <x:c r="K15" s="7"/>
       <x:c r="L15" s="7" t="s">
-        <x:v>20</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M15" s="7"/>
       <x:c r="N15" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:15" s="2" customFormat="1">
       <x:c r="A16" s="34"/>
       <x:c r="B16" s="28" t="s">
-        <x:v>82</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>62</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D16" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E16" s="5" t="s">
-        <x:v>62</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F16" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G16" s="5"/>
       <x:c r="H16" s="5" t="s">
-        <x:v>59</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I16" s="5" t="s">
-        <x:v>67</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="J16" s="5" t="s">
-        <x:v>113</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K16" s="5" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="L16" s="9"/>
       <x:c r="M16" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="N16" s="10" t="s">
-        <x:v>81</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O16" s="1"/>
     </x:row>
@@ -2074,112 +2075,112 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C17" s="11" t="s">
-        <x:v>73</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D17" s="11" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E17" s="11" t="s">
-        <x:v>73</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F17" s="11"/>
       <x:c r="G17" s="11"/>
       <x:c r="H17" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I17" s="11" t="s">
-        <x:v>47</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J17" s="11" t="s">
-        <x:v>46</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="K17" s="12" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="L17" s="11" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M17" s="11"/>
       <x:c r="N17" s="13" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:14" ht="115.34999999999999">
       <x:c r="A18" s="30" t="s">
-        <x:v>63</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B18" s="31">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C18" s="14" t="s">
-        <x:v>65</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D18" s="14" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E18" s="14" t="s">
-        <x:v>65</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F18" s="14"/>
       <x:c r="G18" s="14"/>
       <x:c r="H18" s="14" t="s">
-        <x:v>100</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I18" s="14" t="s">
-        <x:v>47</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J18" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="K18" s="15" t="s">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="L18" s="14" t="s">
-        <x:v>15</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="M18" s="14"/>
       <x:c r="N18" s="16" t="s">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14" ht="196.44999999999999" customHeight="1">
       <x:c r="A19" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B19" s="27">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>87</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G19" s="7"/>
       <x:c r="H19" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>47</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J19" s="7" t="s">
-        <x:v>0</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K19" s="39" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="L19" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M19" s="7"/>
       <x:c r="N19" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:15" s="2" customFormat="1">
@@ -2188,38 +2189,38 @@
         <x:v>4.0999999999999996</x:v>
       </x:c>
       <x:c r="C20" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D20" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E20" s="5" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F20" s="5" t="s">
-        <x:v>87</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G20" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H20" s="5" t="s">
-        <x:v>107</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="I20" s="5" t="s">
-        <x:v>67</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="J20" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="K20" s="5" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="L20" s="9"/>
       <x:c r="M20" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N20" s="10" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="O20" s="1"/>
     </x:row>
@@ -2229,72 +2230,72 @@
         <x:v>4.2000000000000002</x:v>
       </x:c>
       <x:c r="C21" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D21" s="11" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E21" s="11" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F21" s="11" t="s">
-        <x:v>87</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G21" s="11" t="s">
-        <x:v>85</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H21" s="11" t="s">
-        <x:v>60</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I21" s="11" t="s">
-        <x:v>47</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J21" s="11" t="s">
-        <x:v>0</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="K21" s="11" t="s">
-        <x:v>4</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L21" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="M21" s="11" t="s">
-        <x:v>12</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N21" s="13" t="s">
-        <x:v>34</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:14" ht="17.149999999999999">
       <x:c r="A22" s="32" t="s">
-        <x:v>66</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B22" s="31">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C22" s="14" t="s">
-        <x:v>66</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D22" s="14" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E22" s="14" t="s">
-        <x:v>66</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F22" s="14"/>
       <x:c r="G22" s="14"/>
       <x:c r="H22" s="14" t="s">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I22" s="14"/>
       <x:c r="J22" s="14"/>
       <x:c r="K22" s="14"/>
       <x:c r="L22" s="14" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M22" s="14"/>
       <x:c r="N22" s="16" t="s">
-        <x:v>23</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:14">

--- a/_Document/기능정의서.xlsx
+++ b/_Document/기능정의서.xlsx
@@ -19,47 +19,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="115">
-  <x:si>
-    <x:t>get</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>url</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"roaddog":[{"deseration_no", value,"profile":value
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="115">
+  <x:si>
+    <x:t>/accounts/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"name":value,"interests":[{"img":value
 , "kind": value
 , "age", value, "sex":value, "neutral":value}]}</x:t>
   </x:si>
   <x:si>
-    <x:t>{"name":value,"interests":[{"img":value
+    <x:t>{"roaddog":[{"deseration_no", value, "profile":value
+, "kind": value
+, "age", value, "sex":value, "neutral_yn":value}]}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id, tel, address, detail_address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"roaddog":[{"deseration_no", value,"profile":value
 , "kind": value
 , "age", value, "sex":value, "neutral":value}]}</x:t>
   </x:si>
@@ -70,36 +48,82 @@
 , "age", value, "sex":value, "neutral_yn":value, "process_state":value,"special_mark":value,"st_cd":value,"care_nm":value,"latitude":value,"longitude":value,"other_roaddog":["deseration_no":value,'profile":value}]}</x:t>
   </x:si>
   <x:si>
-    <x:t>user_id, tel, address, detail_address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"roaddog":[{"deseration_no", value, "profile":value
-, "kind": value
-, "age", value, "sex":value, "neutral_yn":value}]}</x:t>
-  </x:si>
-  <x:si>
     <x:t>{"id":value, "tel":value, "address":value, "detail_address":value}</x:t>
   </x:si>
   <x:si>
-    <x:t>user_id, weight_cd, age_cd, attr_cd, health_cd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id, pw, pw_confirm, name, tel, address, detail_address</x:t>
-  </x:si>
-  <x:si>
     <x:t>{"care_nm":value,"addr_detail":value,"care_tel":value, "charge_nm":value,"office_tel":value}</x:t>
   </x:si>
   <x:si>
+    <x:t>username, pw, pw_confirm, name, tel, addr, addr_detail</x:t>
+  </x:si>
+  <x:si>
     <x:t>{"weight_cd":value,"age_cd":value,"attr_cd":value,"health_cd":value}</x:t>
   </x:si>
   <x:si>
+    <x:t>id, deseration_no, inter_score</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id, weight_cd, age_cd, attr_cd, health_cd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id, si, kind</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id, deseration_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/mypage/survey_info/submit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/mypage/user_info/submit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/mypage/inquiry/submit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roaddog/adopt_inquiry.html(팝업)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/mypage/survey_info</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스소개 화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유기견 추천/검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의하기화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redirect</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입양문의 화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천페이지 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설문조사화면 요청</x:t>
+  </x:si>
+  <x:si>
     <x:t>추천/검색 페이지</x:t>
   </x:si>
   <x:si>
-    <x:t>문의하기화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redirect</x:t>
+    <x:t>추천/검색페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/about_us</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색페이지 조회</x:t>
   </x:si>
   <x:si>
     <x:t>상세페이지 조회</x:t>
@@ -108,36 +132,6 @@
     <x:t>/recommend</x:t>
   </x:si>
   <x:si>
-    <x:t>추천/검색페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/about_us</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입양문의 화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유기견 추천/검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천페이지 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스소개 화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설문조사화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색페이지 조회</x:t>
-  </x:si>
-  <x:si>
     <x:t>설문정보화면 요청</x:t>
   </x:si>
   <x:si>
@@ -147,7 +141,49 @@
     <x:t>templates</x:t>
   </x:si>
   <x:si>
-    <x:t>user_id, si, kind</x:t>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>url</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>get</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/signup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/recommend/survey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/mypage</x:t>
   </x:si>
   <x:si>
     <x:t>/accounts/logout</x:t>
@@ -156,181 +192,175 @@
     <x:t>roaddog/survey.html</x:t>
   </x:si>
   <x:si>
-    <x:t>accounts/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/mypage</x:t>
-  </x:si>
-  <x:si>
     <x:t>roaddog/search.html</x:t>
   </x:si>
   <x:si>
-    <x:t>/accounts/signup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/recommend/survey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/mypage/user_info/submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_id, deseration_no, inter_score</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/mypage/survey_info/submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"user_id":value, "inquiry":value}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/mypage/survey_info</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/adopt_inquiry.html(팝업)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/mypage/inquiry/submit</x:t>
+    <x:t>로그인화면 요청(홈화면)</x:t>
   </x:si>
   <x:si>
     <x:t>{"token":value}</x:t>
   </x:si>
   <x:si>
-    <x:t>id, password</x:t>
-  </x:si>
-  <x:si>
     <x:t>/detail_info</x:t>
   </x:si>
   <x:si>
-    <x:t>로그인화면 요청(홈화면)</x:t>
+    <x:t>post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.2.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.3</x:t>
   </x:si>
   <x:si>
     <x:t>유기견 추천</x:t>
   </x:si>
   <x:si>
+    <x:t>2.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설문조사 제출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관심동물별점</x:t>
+  </x:si>
+  <x:si>
     <x:t>설문정보 수정</x:t>
   </x:si>
   <x:si>
     <x:t>추천페이지</x:t>
   </x:si>
   <x:si>
-    <x:t>검색페이지</x:t>
-  </x:si>
-  <x:si>
     <x:t>1.4.2</x:t>
   </x:si>
   <x:si>
-    <x:t>1.4.2.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.1.1</x:t>
+    <x:t>설문조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의하기 제출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유기견 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.3.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.1</x:t>
   </x:si>
   <x:si>
     <x:t>회원정보 수정</x:t>
   </x:si>
   <x:si>
-    <x:t>1.3.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의하기 제출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관심동물별점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설문조사 제출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설문조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유기견 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.1</x:t>
-  </x:si>
-  <x:si>
     <x:t>서비스소개</x:t>
   </x:si>
   <x:si>
-    <x:t>post</x:t>
+    <x:t>method</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">대분류 </x:t>
   </x:si>
   <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>depth3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청파라미터</x:t>
+  </x:si>
+  <x:si>
     <x:t>상세페이지</x:t>
   </x:si>
   <x:si>
-    <x:t>마이페이지</x:t>
+    <x:t>depth4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>depth1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.3.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입양문의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설문정보</x:t>
   </x:si>
   <x:si>
     <x:t>응답데이터형식</x:t>
   </x:si>
   <x:si>
-    <x:t>설문정보</x:t>
+    <x:t>depth2</x:t>
   </x:si>
   <x:si>
     <x:t>기능정의</x:t>
   </x:si>
   <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>depth4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>depth1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.3.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>method</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청파라미터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>depth3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입양문의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>depth2</x:t>
+    <x:t>accounts/mypage.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/login/submit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/signup/submit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/user_info.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/detail_info/interest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"status_code":value}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roaddog/recommend.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roaddog/about_us.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/mypage/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/signup.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/survey_info.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/detail_info/adopt_inquiry</x:t>
   </x:si>
   <x:si>
     <x:t>roaddog/detail_info.html</x:t>
   </x:si>
   <x:si>
-    <x:t>accounts/survey_info.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/detail_info/adopt_inquiry</x:t>
+    <x:t>/accounts/mypage/user_info</x:t>
   </x:si>
   <x:si>
     <x:t>/recommend/survey/submit</x:t>
@@ -339,40 +369,10 @@
     <x:t>accounts/inquiry.html(팝업)</x:t>
   </x:si>
   <x:si>
-    <x:t>/accounts/mypage/user_info</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/recommend.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/signup/submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/login/submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/user_info.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/signup.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"status_code":value}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/mypage/inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_id, deseration_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/about_us.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/detail_info/interest</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/mypage.html</x:t>
+    <x:t>{"id":value, "inquiry":value}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>username, password</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -874,19 +874,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1183,6 +1170,19 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
@@ -1455,8 +1455,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:O23"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="D13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K19" activeCellId="0" sqref="K19:K19"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="J7" activeCellId="0" sqref="J7:J7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1478,159 +1478,159 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:14" ht="24.25">
-      <x:c r="A1" s="17" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="B1" s="18" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C1" s="18" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D1" s="18" t="s">
+      <x:c r="A1" s="16" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B1" s="17" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C1" s="17" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D1" s="17" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="E1" s="18" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="F1" s="18" t="s">
+      <x:c r="E1" s="17" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="G1" s="18" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="H1" s="18" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="I1" s="18" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="J1" s="18" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="K1" s="18" t="s">
+      <x:c r="F1" s="17" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="L1" s="18" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="M1" s="18" t="s">
+      <x:c r="G1" s="17" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="H1" s="17" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="I1" s="17" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="J1" s="17" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="K1" s="17" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="L1" s="17" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="M1" s="17" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="N1" s="19" t="s">
-        <x:v>86</x:v>
+      <x:c r="N1" s="18" t="s">
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:15" s="2" customFormat="1" ht="17.149999999999999">
-      <x:c r="A2" s="22" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="23">
+      <x:c r="A2" s="21" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B2" s="22">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C2" s="20"/>
-      <x:c r="D2" s="20" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E2" s="20"/>
-      <x:c r="F2" s="20"/>
-      <x:c r="G2" s="20"/>
-      <x:c r="H2" s="20" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="I2" s="20"/>
-      <x:c r="J2" s="20"/>
-      <x:c r="K2" s="20"/>
-      <x:c r="L2" s="20" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="M2" s="20"/>
-      <x:c r="N2" s="21" t="s">
-        <x:v>6</x:v>
+      <x:c r="C2" s="19"/>
+      <x:c r="D2" s="19" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E2" s="19"/>
+      <x:c r="F2" s="19"/>
+      <x:c r="G2" s="19"/>
+      <x:c r="H2" s="19" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I2" s="19"/>
+      <x:c r="J2" s="19"/>
+      <x:c r="K2" s="19"/>
+      <x:c r="L2" s="19" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="M2" s="19"/>
+      <x:c r="N2" s="20" t="s">
+        <x:v>47</x:v>
       </x:c>
       <x:c r="O2" s="1"/>
     </x:row>
     <x:row r="3" spans="1:14" ht="16.75">
-      <x:c r="A3" s="36" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B3" s="24">
+      <x:c r="A3" s="35" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B3" s="23">
         <x:v>1.1000000000000001</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F3" s="7"/>
       <x:c r="G3" s="7"/>
       <x:c r="H3" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I3" s="7"/>
       <x:c r="J3" s="7"/>
       <x:c r="K3" s="7"/>
       <x:c r="L3" s="7" t="s">
-        <x:v>42</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M3" s="7"/>
       <x:c r="N3" s="8" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:15" s="2" customFormat="1">
-      <x:c r="A4" s="37"/>
-      <x:c r="B4" s="25" t="s">
-        <x:v>75</x:v>
+      <x:c r="A4" s="36"/>
+      <x:c r="B4" s="24" t="s">
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C4" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D4" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E4" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F4" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G4" s="5"/>
       <x:c r="H4" s="5" t="s">
-        <x:v>106</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I4" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J4" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="K4" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="L4" s="5"/>
       <x:c r="M4" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="N4" s="10" t="s">
-        <x:v>9</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="O4" s="1"/>
     </x:row>
     <x:row r="5" spans="1:15" s="2" customFormat="1">
-      <x:c r="A5" s="37"/>
-      <x:c r="B5" s="25">
+      <x:c r="A5" s="36"/>
+      <x:c r="B5" s="24">
         <x:v>1.2</x:v>
       </x:c>
       <x:c r="C5" s="5" t="s">
         <x:v>90</x:v>
       </x:c>
       <x:c r="D5" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E5" s="5" t="s">
         <x:v>90</x:v>
@@ -1638,20 +1638,20 @@
       <x:c r="F5" s="5"/>
       <x:c r="G5" s="5"/>
       <x:c r="H5" s="5" t="s">
-        <x:v>40</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I5" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J5" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K5" s="5" t="s">
-        <x:v>109</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L5" s="5"/>
       <x:c r="M5" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="N5" s="10" t="s">
         <x:v>90</x:v>
@@ -1659,297 +1659,299 @@
       <x:c r="O5" s="1"/>
     </x:row>
     <x:row r="6" spans="1:14">
-      <x:c r="A6" s="37"/>
-      <x:c r="B6" s="25">
+      <x:c r="A6" s="36"/>
+      <x:c r="B6" s="24">
         <x:v>1.3</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>87</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D6" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E6" s="5" t="s">
-        <x:v>87</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F6" s="5"/>
       <x:c r="G6" s="5"/>
       <x:c r="H6" s="5" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I6" s="5" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="I6" s="5"/>
       <x:c r="J6" s="5"/>
       <x:c r="K6" s="5"/>
       <x:c r="L6" s="5" t="s">
-        <x:v>108</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="M6" s="5"/>
       <x:c r="N6" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:15" s="2" customFormat="1">
-      <x:c r="A7" s="37"/>
-      <x:c r="B7" s="25" t="s">
-        <x:v>68</x:v>
+      <x:c r="A7" s="36"/>
+      <x:c r="B7" s="24" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>87</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D7" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E7" s="5" t="s">
-        <x:v>87</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F7" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G7" s="5"/>
       <x:c r="H7" s="5" t="s">
-        <x:v>105</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I7" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J7" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K7" s="5" t="s">
-        <x:v>109</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L7" s="5"/>
       <x:c r="M7" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="N7" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="O7" s="1"/>
     </x:row>
     <x:row r="8" spans="1:15" s="2" customFormat="1" ht="98.25">
-      <x:c r="A8" s="37"/>
-      <x:c r="B8" s="25">
+      <x:c r="A8" s="36"/>
+      <x:c r="B8" s="24">
         <x:v>1.3999999999999999</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D8" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E8" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F8" s="5"/>
       <x:c r="G8" s="5"/>
       <x:c r="H8" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I8" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J8" s="5" t="s">
-        <x:v>77</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K8" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L8" s="5" t="s">
-        <x:v>114</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="M8" s="5"/>
       <x:c r="N8" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O8" s="1"/>
     </x:row>
     <x:row r="9" spans="1:15" s="2" customFormat="1">
-      <x:c r="A9" s="37"/>
-      <x:c r="B9" s="25" t="s">
-        <x:v>78</x:v>
+      <x:c r="A9" s="36"/>
+      <x:c r="B9" s="24" t="s">
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D9" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E9" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F9" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G9" s="5"/>
       <x:c r="H9" s="5" t="s">
-        <x:v>103</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I9" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J9" s="5" t="s">
-        <x:v>77</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K9" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L9" s="5" t="s">
-        <x:v>107</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="M9" s="5"/>
       <x:c r="N9" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O9" s="1"/>
     </x:row>
     <x:row r="10" spans="1:15" s="2" customFormat="1">
-      <x:c r="A10" s="37"/>
-      <x:c r="B10" s="25" t="s">
-        <x:v>66</x:v>
+      <x:c r="A10" s="36"/>
+      <x:c r="B10" s="24" t="s">
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D10" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E10" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F10" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G10" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H10" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I10" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J10" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K10" s="5" t="s">
-        <x:v>109</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L10" s="5"/>
       <x:c r="M10" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N10" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O10" s="1"/>
     </x:row>
     <x:row r="11" spans="1:15" s="2" customFormat="1">
-      <x:c r="A11" s="37"/>
-      <x:c r="B11" s="25" t="s">
-        <x:v>62</x:v>
+      <x:c r="A11" s="36"/>
+      <x:c r="B11" s="24" t="s">
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D11" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E11" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F11" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G11" s="5"/>
       <x:c r="H11" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I11" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J11" s="5" t="s">
-        <x:v>77</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K11" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="L11" s="5" t="s">
-        <x:v>99</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M11" s="5"/>
       <x:c r="N11" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="O11" s="1"/>
     </x:row>
     <x:row r="12" spans="1:15" s="2" customFormat="1">
-      <x:c r="A12" s="37"/>
-      <x:c r="B12" s="25" t="s">
-        <x:v>63</x:v>
+      <x:c r="A12" s="36"/>
+      <x:c r="B12" s="24" t="s">
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C12" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D12" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E12" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F12" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G12" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H12" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I12" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J12" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="K12" s="5" t="s">
-        <x:v>109</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L12" s="5"/>
       <x:c r="M12" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N12" s="10" t="s">
-        <x:v>59</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="O12" s="1"/>
     </x:row>
     <x:row r="13" spans="1:15" s="2" customFormat="1">
-      <x:c r="A13" s="37"/>
-      <x:c r="B13" s="25" t="s">
-        <x:v>64</x:v>
+      <x:c r="A13" s="36"/>
+      <x:c r="B13" s="24" t="s">
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C13" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D13" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F13" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G13" s="5"/>
       <x:c r="H13" s="5" t="s">
-        <x:v>110</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="I13" s="5"/>
       <x:c r="J13" s="5"/>
       <x:c r="K13" s="5"/>
       <x:c r="L13" s="5" t="s">
-        <x:v>102</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M13" s="5"/>
       <x:c r="N13" s="10" t="s">
@@ -1958,40 +1960,40 @@
       <x:c r="O13" s="1"/>
     </x:row>
     <x:row r="14" spans="1:15" s="2" customFormat="1" ht="16.75">
-      <x:c r="A14" s="38"/>
-      <x:c r="B14" s="26" t="s">
+      <x:c r="A14" s="37"/>
+      <x:c r="B14" s="25" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="C14" s="11" t="s">
-        <x:v>70</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D14" s="11" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="11" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F14" s="11" t="s">
-        <x:v>70</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G14" s="11" t="s">
-        <x:v>5</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H14" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I14" s="11" t="s">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J14" s="11" t="s">
-        <x:v>77</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K14" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="L14" s="11"/>
       <x:c r="M14" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N14" s="13" t="s">
         <x:v>71</x:v>
@@ -1999,124 +2001,124 @@
       <x:c r="O14" s="1"/>
     </x:row>
     <x:row r="15" spans="1:14" ht="16.75">
-      <x:c r="A15" s="33" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B15" s="27">
+      <x:c r="A15" s="32" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B15" s="26">
         <x:v>2.1000000000000001</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>74</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>74</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F15" s="7"/>
       <x:c r="G15" s="7"/>
       <x:c r="H15" s="7" t="s">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
       <x:c r="J15" s="7"/>
       <x:c r="K15" s="7"/>
       <x:c r="L15" s="7" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M15" s="7"/>
       <x:c r="N15" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:15" s="2" customFormat="1">
-      <x:c r="A16" s="34"/>
-      <x:c r="B16" s="28" t="s">
-        <x:v>65</x:v>
+      <x:c r="A16" s="33"/>
+      <x:c r="B16" s="27" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>74</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D16" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E16" s="5" t="s">
-        <x:v>74</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F16" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G16" s="5"/>
       <x:c r="H16" s="5" t="s">
-        <x:v>101</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I16" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J16" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="K16" s="5" t="s">
-        <x:v>109</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L16" s="9"/>
       <x:c r="M16" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N16" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="O16" s="1"/>
     </x:row>
     <x:row r="17" spans="1:14" ht="115">
-      <x:c r="A17" s="35"/>
-      <x:c r="B17" s="29">
+      <x:c r="A17" s="34"/>
+      <x:c r="B17" s="28">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C17" s="11" t="s">
-        <x:v>60</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D17" s="11" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E17" s="11" t="s">
-        <x:v>60</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F17" s="11"/>
       <x:c r="G17" s="11"/>
       <x:c r="H17" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I17" s="11" t="s">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J17" s="11" t="s">
-        <x:v>77</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="K17" s="12" t="s">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L17" s="11" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="M17" s="11"/>
       <x:c r="N17" s="13" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:14" ht="115.34999999999999">
-      <x:c r="A18" s="30" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="B18" s="31">
+      <x:c r="A18" s="29" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B18" s="30">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C18" s="14" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="D18" s="14" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E18" s="14" t="s">
         <x:v>61</x:v>
@@ -2124,160 +2126,160 @@
       <x:c r="F18" s="14"/>
       <x:c r="G18" s="14"/>
       <x:c r="H18" s="14" t="s">
-        <x:v>94</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I18" s="14" t="s">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J18" s="14" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="K18" s="15" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="K18" s="39" t="s">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L18" s="14" t="s">
-        <x:v>44</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="M18" s="14"/>
-      <x:c r="N18" s="16" t="s">
-        <x:v>35</x:v>
+      <x:c r="N18" s="15" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14" ht="196.44999999999999" customHeight="1">
-      <x:c r="A19" s="36" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B19" s="27">
+      <x:c r="A19" s="35" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B19" s="26">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>82</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G19" s="7"/>
       <x:c r="H19" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J19" s="7" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="K19" s="39" t="s">
         <x:v>13</x:v>
       </x:c>
+      <x:c r="K19" s="38" t="s">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="L19" s="7" t="s">
-        <x:v>98</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="M19" s="7"/>
       <x:c r="N19" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:15" s="2" customFormat="1">
-      <x:c r="A20" s="37"/>
-      <x:c r="B20" s="28">
+      <x:c r="A20" s="36"/>
+      <x:c r="B20" s="27">
         <x:v>4.0999999999999996</x:v>
       </x:c>
       <x:c r="C20" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D20" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E20" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F20" s="5" t="s">
-        <x:v>82</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G20" s="5" t="s">
-        <x:v>72</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H20" s="5" t="s">
-        <x:v>113</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I20" s="5" t="s">
-        <x:v>80</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J20" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K20" s="5" t="s">
-        <x:v>109</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="L20" s="9"/>
       <x:c r="M20" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N20" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O20" s="1"/>
     </x:row>
     <x:row r="21" spans="1:14" ht="16.75">
-      <x:c r="A21" s="38"/>
-      <x:c r="B21" s="29">
+      <x:c r="A21" s="37"/>
+      <x:c r="B21" s="28">
         <x:v>4.2000000000000002</x:v>
       </x:c>
       <x:c r="C21" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D21" s="11" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E21" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F21" s="11" t="s">
-        <x:v>82</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G21" s="11" t="s">
-        <x:v>96</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H21" s="11" t="s">
-        <x:v>100</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I21" s="11" t="s">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J21" s="11" t="s">
-        <x:v>111</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="K21" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="L21" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="M21" s="11" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N21" s="13" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:14" ht="17.149999999999999">
-      <x:c r="A22" s="32" t="s">
+      <x:c r="A22" s="31" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="B22" s="31">
+      <x:c r="B22" s="30">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C22" s="14" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="D22" s="14" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E22" s="14" t="s">
         <x:v>79</x:v>
@@ -2285,17 +2287,17 @@
       <x:c r="F22" s="14"/>
       <x:c r="G22" s="14"/>
       <x:c r="H22" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I22" s="14"/>
       <x:c r="J22" s="14"/>
       <x:c r="K22" s="14"/>
       <x:c r="L22" s="14" t="s">
-        <x:v>112</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M22" s="14"/>
-      <x:c r="N22" s="16" t="s">
-        <x:v>32</x:v>
+      <x:c r="N22" s="15" t="s">
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:14">

--- a/_Document/기능정의서.xlsx
+++ b/_Document/기능정의서.xlsx
@@ -19,27 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="115">
-  <x:si>
-    <x:t>/accounts/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"name":value,"interests":[{"img":value
-, "kind": value
-, "age", value, "sex":value, "neutral":value}]}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"roaddog":[{"deseration_no", value, "profile":value
-, "kind": value
-, "age", value, "sex":value, "neutral_yn":value}]}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id, tel, address, detail_address</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="114">
+  <x:si>
+    <x:t>deseration_no, inter_score</x:t>
   </x:si>
   <x:si>
     <x:t>{"roaddog":[{"deseration_no", value,"profile":value
 , "kind": value
 , "age", value, "sex":value, "neutral":value}]}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"care_nm":value,"addr_detail":value,"care_tel":value, "charge_nm":value,"office_tel":value}</x:t>
   </x:si>
   <x:si>
     <x:t>"desertion_no
@@ -48,28 +38,89 @@
 , "age", value, "sex":value, "neutral_yn":value, "process_state":value,"special_mark":value,"st_cd":value,"care_nm":value,"latitude":value,"longitude":value,"other_roaddog":["deseration_no":value,'profile":value}]}</x:t>
   </x:si>
   <x:si>
+    <x:t>deseration_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"roaddog":[{"deseration_no", value, "profile":value
+, "kind": value
+, "age", value, "sex":value, "neutral_yn":value}]}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"name":value,"interests":[{"img":value
+, "kind": value
+, "age", value, "sex":value, "neutral":value}]}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>username, pw, pw_confirm, name, tel, addr, addr_detail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id, weight_cd, age_cd, attr_cd, health_cd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>si, kind</x:t>
+  </x:si>
+  <x:si>
     <x:t>{"id":value, "tel":value, "address":value, "detail_address":value}</x:t>
   </x:si>
   <x:si>
-    <x:t>{"care_nm":value,"addr_detail":value,"care_tel":value, "charge_nm":value,"office_tel":value}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>username, pw, pw_confirm, name, tel, addr, addr_detail</x:t>
-  </x:si>
-  <x:si>
     <x:t>{"weight_cd":value,"age_cd":value,"attr_cd":value,"health_cd":value}</x:t>
   </x:si>
   <x:si>
-    <x:t>id, deseration_no, inter_score</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id, weight_cd, age_cd, attr_cd, health_cd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id, si, kind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id, deseration_no</x:t>
+    <x:t>roaddog/search.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roaddog/survey.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/index.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>username, password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/logout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/recommend/survey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/signup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/mypage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>get</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>url</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/</x:t>
   </x:si>
   <x:si>
     <x:t>/accounts/mypage/survey_info/submit</x:t>
@@ -78,301 +129,247 @@
     <x:t>/accounts/mypage/user_info/submit</x:t>
   </x:si>
   <x:si>
+    <x:t>id, tel, address, detail_address</x:t>
+  </x:si>
+  <x:si>
     <x:t>accounts/mypage/inquiry/submit</x:t>
   </x:si>
   <x:si>
+    <x:t>/accounts/mypage/survey_info</x:t>
+  </x:si>
+  <x:si>
     <x:t>roaddog/adopt_inquiry.html(팝업)</x:t>
   </x:si>
   <x:si>
-    <x:t>/accounts/mypage/survey_info</x:t>
+    <x:t>설문정보화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>templates</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관심동물 별점 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천/검색 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입양문의 화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천/검색페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유기견 추천/검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/about_us</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의하기화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설문조사화면 요청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세페이지 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천페이지 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/recommend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색페이지 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보화면 요청</x:t>
   </x:si>
   <x:si>
     <x:t>서비스소개 화면 요청</x:t>
   </x:si>
   <x:si>
-    <x:t>유기견 추천/검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의하기화면 요청</x:t>
-  </x:si>
-  <x:si>
     <x:t>Redirect</x:t>
   </x:si>
   <x:si>
-    <x:t>입양문의 화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천페이지 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설문조사화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천/검색 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천/검색페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/about_us</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색페이지 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세페이지 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/recommend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설문정보화면 요청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관심동물 별점 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>templates</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>url</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>get</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/index.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/signup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/recommend/survey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/mypage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/logout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/survey.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/search.html</x:t>
+    <x:t>accounts/survey_info.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roaddog/detail_info.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/mypage/user_info</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/inquiry.html(팝업)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/detail_info/adopt_inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/recommend/survey/submit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"token":value}</x:t>
   </x:si>
   <x:si>
     <x:t>로그인화면 요청(홈화면)</x:t>
   </x:si>
   <x:si>
-    <x:t>{"token":value}</x:t>
-  </x:si>
-  <x:si>
     <x:t>/detail_info</x:t>
   </x:si>
   <x:si>
+    <x:t>문의하기 제출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유기견 추천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문의하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서비스소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>method</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유기견 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설문조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.3.1</x:t>
+  </x:si>
+  <x:si>
     <x:t>post</x:t>
   </x:si>
   <x:si>
+    <x:t>회원정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.2.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설문조사 제출</x:t>
+  </x:si>
+  <x:si>
     <x:t>1.4.1.1</x:t>
   </x:si>
   <x:si>
-    <x:t>1.4.2.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유기견 추천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설문조사 제출</x:t>
+    <x:t>설문정보 수정</x:t>
   </x:si>
   <x:si>
     <x:t>관심동물별점</x:t>
   </x:si>
   <x:si>
-    <x:t>설문정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설문조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의하기 제출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유기견 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.3.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문의하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서비스소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>method</x:t>
+    <x:t>설문정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>depth2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입양문의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청파라미터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상세페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>depth1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>depth3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>응답데이터형식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.3.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>depth4</x:t>
   </x:si>
   <x:si>
     <x:t>마이페이지</x:t>
   </x:si>
   <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">대분류 </x:t>
   </x:si>
   <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>depth3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청파라미터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상세페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>depth4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>depth1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4.3.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입양문의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설문정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응답데이터형식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>depth2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능정의</x:t>
+    <x:t>accounts/user_info.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"status_code":value}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/accounts/signup/submit</x:t>
   </x:si>
   <x:si>
     <x:t>accounts/mypage.html</x:t>
   </x:si>
   <x:si>
+    <x:t>/detail_info/interest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roaddog/recommend.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accounts/mypage/inquiry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>roaddog/about_us.html</x:t>
+  </x:si>
+  <x:si>
     <x:t>/accounts/login/submit</x:t>
   </x:si>
   <x:si>
-    <x:t>/accounts/signup/submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/user_info.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/detail_info/interest</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"status_code":value}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/recommend.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/about_us.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/mypage/inquiry</x:t>
-  </x:si>
-  <x:si>
     <x:t>accounts/signup.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/survey_info.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/detail_info/adopt_inquiry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roaddog/detail_info.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/accounts/mypage/user_info</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/recommend/survey/submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accounts/inquiry.html(팝업)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"id":value, "inquiry":value}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>username, password</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1085,84 +1082,6 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1184,6 +1103,84 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1455,8 +1452,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:O23"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="J7" activeCellId="0" sqref="J7:J7"/>
+    <x:sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="J19" activeCellId="0" sqref="J19:J19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1479,825 +1476,815 @@
   <x:sheetData>
     <x:row r="1" spans="1:14" ht="24.25">
       <x:c r="A1" s="16" t="s">
-        <x:v>82</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B1" s="17" t="s">
-        <x:v>37</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1" s="17" t="s">
-        <x:v>40</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D1" s="17" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E1" s="17" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="E1" s="17" t="s">
-        <x:v>95</x:v>
-      </x:c>
       <x:c r="F1" s="17" t="s">
-        <x:v>84</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G1" s="17" t="s">
-        <x:v>87</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H1" s="17" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I1" s="17" t="s">
-        <x:v>80</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="J1" s="17" t="s">
-        <x:v>85</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="K1" s="17" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="L1" s="17" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M1" s="17" t="s">
-        <x:v>23</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N1" s="18" t="s">
-        <x:v>96</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:15" s="2" customFormat="1" ht="17.149999999999999">
       <x:c r="A2" s="21" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B2" s="22">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="19"/>
       <x:c r="D2" s="19" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E2" s="19"/>
       <x:c r="F2" s="19"/>
       <x:c r="G2" s="19"/>
       <x:c r="H2" s="19" t="s">
-        <x:v>44</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I2" s="19"/>
       <x:c r="J2" s="19"/>
       <x:c r="K2" s="19"/>
       <x:c r="L2" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="M2" s="19"/>
       <x:c r="N2" s="20" t="s">
-        <x:v>47</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O2" s="1"/>
     </x:row>
     <x:row r="3" spans="1:14" ht="16.75">
-      <x:c r="A3" s="35" t="s">
-        <x:v>42</x:v>
+      <x:c r="A3" s="37" t="s">
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B3" s="23">
         <x:v>1.1000000000000001</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>38</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D3" s="7" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E3" s="7" t="s">
-        <x:v>38</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F3" s="7"/>
       <x:c r="G3" s="7"/>
       <x:c r="H3" s="7" t="s">
-        <x:v>0</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I3" s="7"/>
       <x:c r="J3" s="7"/>
       <x:c r="K3" s="7"/>
       <x:c r="L3" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="M3" s="7"/>
       <x:c r="N3" s="8" t="s">
-        <x:v>55</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:15" s="2" customFormat="1">
-      <x:c r="A4" s="36"/>
+      <x:c r="A4" s="38"/>
       <x:c r="B4" s="24" t="s">
-        <x:v>73</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C4" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D4" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E4" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F4" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G4" s="5"/>
       <x:c r="H4" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="I4" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J4" s="5" t="s">
-        <x:v>114</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K4" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="L4" s="5"/>
       <x:c r="M4" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N4" s="10" t="s">
-        <x:v>38</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O4" s="1"/>
     </x:row>
     <x:row r="5" spans="1:15" s="2" customFormat="1">
-      <x:c r="A5" s="36"/>
+      <x:c r="A5" s="38"/>
       <x:c r="B5" s="24">
         <x:v>1.2</x:v>
       </x:c>
       <x:c r="C5" s="5" t="s">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D5" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E5" s="5" t="s">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F5" s="5"/>
       <x:c r="G5" s="5"/>
       <x:c r="H5" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I5" s="5" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="J5" s="5" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J5" s="5"/>
       <x:c r="K5" s="5" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="L5" s="5"/>
       <x:c r="M5" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N5" s="10" t="s">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="O5" s="1"/>
     </x:row>
     <x:row r="6" spans="1:14">
-      <x:c r="A6" s="36"/>
+      <x:c r="A6" s="38"/>
       <x:c r="B6" s="24">
         <x:v>1.3</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D6" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E6" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F6" s="5"/>
       <x:c r="G6" s="5"/>
       <x:c r="H6" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I6" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J6" s="5"/>
       <x:c r="K6" s="5"/>
       <x:c r="L6" s="5" t="s">
-        <x:v>106</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="M6" s="5"/>
       <x:c r="N6" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:15" s="2" customFormat="1">
-      <x:c r="A7" s="36"/>
+      <x:c r="A7" s="38"/>
       <x:c r="B7" s="24" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D7" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="5" t="s">
-        <x:v>83</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F7" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G7" s="5"/>
       <x:c r="H7" s="5" t="s">
-        <x:v>99</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I7" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J7" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="K7" s="5" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="L7" s="5"/>
       <x:c r="M7" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N7" s="10" t="s">
-        <x:v>83</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="O7" s="1"/>
     </x:row>
     <x:row r="8" spans="1:15" s="2" customFormat="1" ht="98.25">
-      <x:c r="A8" s="36"/>
+      <x:c r="A8" s="38"/>
       <x:c r="B8" s="24">
         <x:v>1.3999999999999999</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>81</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D8" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E8" s="5" t="s">
-        <x:v>81</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F8" s="5"/>
       <x:c r="G8" s="5"/>
       <x:c r="H8" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I8" s="5" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="J8" s="5" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J8" s="5"/>
       <x:c r="K8" s="6" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="L8" s="5" t="s">
-        <x:v>97</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="M8" s="5"/>
       <x:c r="N8" s="10" t="s">
-        <x:v>81</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="O8" s="1"/>
     </x:row>
     <x:row r="9" spans="1:15" s="2" customFormat="1">
-      <x:c r="A9" s="36"/>
+      <x:c r="A9" s="38"/>
       <x:c r="B9" s="24" t="s">
-        <x:v>77</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D9" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E9" s="5" t="s">
-        <x:v>81</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F9" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G9" s="5"/>
       <x:c r="H9" s="5" t="s">
-        <x:v>110</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I9" s="5" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="J9" s="5" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J9" s="5"/>
       <x:c r="K9" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="L9" s="5" t="s">
-        <x:v>100</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M9" s="5"/>
       <x:c r="N9" s="10" t="s">
-        <x:v>30</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="O9" s="1"/>
     </x:row>
     <x:row r="10" spans="1:15" s="2" customFormat="1">
-      <x:c r="A10" s="36"/>
+      <x:c r="A10" s="38"/>
       <x:c r="B10" s="24" t="s">
-        <x:v>59</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D10" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E10" s="5" t="s">
-        <x:v>81</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F10" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G10" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H10" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I10" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J10" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="K10" s="5" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="L10" s="5"/>
       <x:c r="M10" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="N10" s="10" t="s">
-        <x:v>78</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O10" s="1"/>
     </x:row>
     <x:row r="11" spans="1:15" s="2" customFormat="1">
-      <x:c r="A11" s="36"/>
+      <x:c r="A11" s="38"/>
       <x:c r="B11" s="24" t="s">
-        <x:v>69</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
-        <x:v>93</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D11" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E11" s="5" t="s">
-        <x:v>81</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F11" s="5" t="s">
-        <x:v>93</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G11" s="5"/>
       <x:c r="H11" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I11" s="5" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="J11" s="5" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J11" s="5"/>
       <x:c r="K11" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="L11" s="5" t="s">
-        <x:v>107</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="M11" s="5"/>
       <x:c r="N11" s="10" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="O11" s="1"/>
     </x:row>
     <x:row r="12" spans="1:15" s="2" customFormat="1">
-      <x:c r="A12" s="36"/>
+      <x:c r="A12" s="38"/>
       <x:c r="B12" s="24" t="s">
-        <x:v>60</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C12" s="5" t="s">
-        <x:v>93</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D12" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E12" s="5" t="s">
-        <x:v>81</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F12" s="5" t="s">
-        <x:v>93</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G12" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H12" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I12" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J12" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K12" s="5" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="L12" s="5"/>
       <x:c r="M12" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="N12" s="10" t="s">
-        <x:v>67</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="O12" s="1"/>
     </x:row>
     <x:row r="13" spans="1:15" s="2" customFormat="1">
-      <x:c r="A13" s="36"/>
+      <x:c r="A13" s="38"/>
       <x:c r="B13" s="24" t="s">
-        <x:v>62</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C13" s="5" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D13" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>81</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F13" s="5" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G13" s="5"/>
       <x:c r="H13" s="5" t="s">
-        <x:v>105</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I13" s="5"/>
       <x:c r="J13" s="5"/>
       <x:c r="K13" s="5"/>
       <x:c r="L13" s="5" t="s">
-        <x:v>112</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="M13" s="5"/>
       <x:c r="N13" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O13" s="1"/>
     </x:row>
     <x:row r="14" spans="1:15" s="2" customFormat="1" ht="16.75">
-      <x:c r="A14" s="37"/>
+      <x:c r="A14" s="39"/>
       <x:c r="B14" s="25" t="s">
-        <x:v>91</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C14" s="11" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D14" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E14" s="11" t="s">
-        <x:v>81</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F14" s="11" t="s">
-        <x:v>76</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G14" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H14" s="11" t="s">
-        <x:v>16</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I14" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J14" s="11" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="K14" s="11" t="s">
-        <x:v>113</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K14" s="5" t="s">
+        <x:v>105</x:v>
       </x:c>
       <x:c r="L14" s="11"/>
       <x:c r="M14" s="11" t="s">
-        <x:v>51</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="N14" s="13" t="s">
-        <x:v>71</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="O14" s="1"/>
     </x:row>
     <x:row r="15" spans="1:14" ht="16.75">
-      <x:c r="A15" s="32" t="s">
-        <x:v>63</x:v>
+      <x:c r="A15" s="34" t="s">
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B15" s="26">
         <x:v>2.1000000000000001</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>70</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D15" s="7" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E15" s="7" t="s">
-        <x:v>70</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F15" s="7"/>
       <x:c r="G15" s="7"/>
       <x:c r="H15" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I15" s="7"/>
       <x:c r="J15" s="7"/>
       <x:c r="K15" s="7"/>
       <x:c r="L15" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M15" s="7"/>
       <x:c r="N15" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:15" s="2" customFormat="1">
-      <x:c r="A16" s="33"/>
+      <x:c r="A16" s="35"/>
       <x:c r="B16" s="27" t="s">
-        <x:v>64</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D16" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E16" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F16" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G16" s="5"/>
       <x:c r="H16" s="5" t="s">
-        <x:v>111</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I16" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J16" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K16" s="5" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="L16" s="9"/>
       <x:c r="M16" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N16" s="10" t="s">
-        <x:v>65</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="O16" s="1"/>
     </x:row>
     <x:row r="17" spans="1:14" ht="115">
-      <x:c r="A17" s="34"/>
+      <x:c r="A17" s="36"/>
       <x:c r="B17" s="28">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C17" s="11" t="s">
-        <x:v>68</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D17" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E17" s="11" t="s">
-        <x:v>68</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F17" s="11"/>
       <x:c r="G17" s="11"/>
       <x:c r="H17" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I17" s="11" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="J17" s="11" t="s">
-        <x:v>37</x:v>
-      </x:c>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J17" s="11"/>
       <x:c r="K17" s="12" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L17" s="11" t="s">
-        <x:v>103</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="M17" s="11"/>
       <x:c r="N17" s="13" t="s">
-        <x:v>25</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:14" ht="115.34999999999999">
       <x:c r="A18" s="29" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B18" s="30">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C18" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D18" s="14" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E18" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F18" s="14"/>
       <x:c r="G18" s="14"/>
       <x:c r="H18" s="14" t="s">
-        <x:v>88</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I18" s="14" t="s">
-        <x:v>45</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J18" s="14" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K18" s="33" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L18" s="14" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="K18" s="39" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L18" s="14" t="s">
-        <x:v>54</x:v>
       </x:c>
       <x:c r="M18" s="14"/>
       <x:c r="N18" s="15" t="s">
-        <x:v>31</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:14" ht="196.44999999999999" customHeight="1">
-      <x:c r="A19" s="35" t="s">
-        <x:v>20</x:v>
+      <x:c r="A19" s="37" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B19" s="26">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D19" s="7" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E19" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F19" s="7" t="s">
-        <x:v>86</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G19" s="7"/>
       <x:c r="H19" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I19" s="7" t="s">
-        <x:v>45</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J19" s="7" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="K19" s="38" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K19" s="32" t="s">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="L19" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="M19" s="7"/>
       <x:c r="N19" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:15" s="2" customFormat="1">
-      <x:c r="A20" s="36"/>
+      <x:c r="A20" s="38"/>
       <x:c r="B20" s="27">
         <x:v>4.0999999999999996</x:v>
       </x:c>
       <x:c r="C20" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D20" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E20" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F20" s="5" t="s">
-        <x:v>86</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G20" s="5" t="s">
-        <x:v>66</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H20" s="5" t="s">
-        <x:v>101</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I20" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J20" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K20" s="5" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="L20" s="9"/>
       <x:c r="M20" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="N20" s="10" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="O20" s="1"/>
     </x:row>
     <x:row r="21" spans="1:14" ht="16.75">
-      <x:c r="A21" s="37"/>
+      <x:c r="A21" s="39"/>
       <x:c r="B21" s="28">
         <x:v>4.2000000000000002</x:v>
       </x:c>
       <x:c r="C21" s="11" t="s">
-        <x:v>27</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D21" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E21" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F21" s="11" t="s">
-        <x:v>86</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G21" s="11" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="H21" s="11" t="s">
-        <x:v>108</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I21" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J21" s="11" t="s">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K21" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L21" s="11" t="s">
-        <x:v>17</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M21" s="11" t="s">
-        <x:v>57</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="N21" s="13" t="s">
-        <x:v>24</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:14" ht="17.149999999999999">
       <x:c r="A22" s="31" t="s">
-        <x:v>79</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B22" s="30">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C22" s="14" t="s">
-        <x:v>79</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D22" s="14" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E22" s="14" t="s">
-        <x:v>79</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F22" s="14"/>
       <x:c r="G22" s="14"/>
       <x:c r="H22" s="14" t="s">
-        <x:v>29</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I22" s="14"/>
       <x:c r="J22" s="14"/>
       <x:c r="K22" s="14"/>
       <x:c r="L22" s="14" t="s">
-        <x:v>104</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="M22" s="14"/>
       <x:c r="N22" s="15" t="s">
-        <x:v>19</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:14">

--- a/_Document/기능정의서.xlsx
+++ b/_Document/기능정의서.xlsx
@@ -1465,8 +1465,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:O23"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="L18" activeCellId="0" sqref="L18:L18"/>
+    <x:sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="J13" activeCellId="0" sqref="J13:J13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.399999999999999"/>
